--- a/output/cleaned/training_data_gpt.xlsx
+++ b/output/cleaned/training_data_gpt.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Swiss federal elections are scheduled to take place on 22 October 2023 . The official federal election portal provides answers to the most common questions on the federal election, including information on the candidates running for the National Council and the Council of States . The deadline for party registration is 31 December 2022 . The publication of candidacy deadlines for the National Council is expected to be on 1 March 2023 . To stand as a candidate for the two chambers of Parliament, you have to meet certain conditions and deadlines, which may vary from canton to canton. To find out the rules, please consult our pages dedicated to candidates for the National Council and the Council of States . I hope this information helps!</t>
+          <t>The Swiss federal elections are scheduled to take place on 22 October 2023. The official federal election portal provides answers to the most common questions on the federal election, including information on the candidates running for the National Council and the Council of States. The deadline for party registration is 31 December 2022. The publication of candidacy deadlines for the National Council is expected to be on 1 March 2023. To stand as a candidate for the two chambers of Parliament, you have to meet certain conditions and deadlines, which may vary from canton to canton. To find out the rules, please consult our pages dedicated to candidates for the National Council and the Council of States. I hope this information helps!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The new Federal Councillor in Switzerland will be elected by the United Federal Assembly on 13 December 2023, after the federal elections on 22 October 2023  . The Federal Council is the highest executive authority and the collective head of state and government of Switzerland. It comprises seven members, who represent the major parties and language regions of the country  . Do you have a specific interest in the Swiss politics?</t>
+          <t>The new Federal Councillor in Switzerland will be elected by the United Federal Assembly on 13 December 2023, after the federal elections on 22 October 2023. The Federal Council is the highest executive authority and the collective head of state and government of Switzerland. It comprises seven members, who represent the major parties and language regions of the country. Do you have a specific interest in the Swiss politics?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>According to a media poll conducted ahead of the 2023 federal elections, centre-right political parties are making slight gains in Switzerland while the Greens are losing a bit of ground . The latest POLITICO Poll of Polls shows that the Swiss People’s Party (SVP) is leading with 28.5% of the vote, followed by the Social Democratic Party (SP) with 16.5% . However, it is important to note that polls are not always accurate and can change quickly.</t>
+          <t>According to a media poll conducted ahead of the 2023 federal elections, centre-right political parties are making slight gains in Switzerland while the Greens are losing a bit of ground. The latest POLITICO Poll of Polls shows that the Swiss People’s Party (SVP) is leading with 28.5% of the vote, followed by the Social Democratic Party (SP) with 16.5%. However, it is important to note that polls are not always accurate and can change quickly.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Federal Council is Switzerland’s government and collegial presidency, composed of seven members who each head their own department  . The Federal Council is elected by the United Federal Assembly, which consists of the National Council and Council of States, every four years in December . The next election will be on 13 December 2023, following the federal election on 22 October 2023  . The current members of the Federal Council are: Alain Berset (SP/FR), President 2023 Ignazio Cassis (FDP/Liberali/TI), Vice President 2023 Viola Amherd (CVP/PDC/VS) Karin Keller-Sutter (FDP/Liberali/SG) Ueli Maurer (SVP/UDC/ZH) Simonetta Sommaruga (SP/PS/BE) Guy Parmelin (SVP/UDC/VD) It is not possible to predict who will be elected as new Federal Councillor in 2023, as it depends on the outcome of the federal election and the decision of the United Federal Assembly. However, some factors that may influence the election are: The political composition of the Federal Council, which reflects the main parties and language regions of Switzerland by convention . The resignation or retirement of any current Federal Councillor, which may trigger a by-election before 2023. The performance and popularity of the current Federal Councillors, which may affect their chances of re-election or challenge from other candidates. Do you have any specific interest or preference for the next Federal Councillor?</t>
+          <t>The Federal Council is Switzerland’s government and collegial presidency, composed of seven members who each head their own department. The Federal Council is elected by the United Federal Assembly, which consists of the National Council and Council of States, every four years in December. The next election will be on 13 December 2023, following the federal election on 22 October 2023. The current members of the Federal Council are: Alain Berset (SP/FR), President 2023 Ignazio Cassis (FDP/Liberali/TI), Vice President 2023 Viola Amherd (CVP/PDC/VS) Karin Keller-Sutter (FDP/Liberali/SG) Ueli Maurer (SVP/UDC/ZH) Simonetta Sommaruga (SP/PS/BE) Guy Parmelin (SVP/UDC/VD) It is not possible to predict who will be elected as new Federal Councillor in 2023, as it depends on the outcome of the federal election and the decision of the United Federal Assembly. However, some factors that may influence the election are: The political composition of the Federal Council, which reflects the main parties and language regions of Switzerland by convention. The resignation or retirement of any current Federal Councillor, which may trigger a by-election before 2023. The performance and popularity of the current Federal Councillors, which may affect their chances of re-election or challenge from other candidates. Do you have any specific interest or preference for the next Federal Councillor?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States . The official federal election portal provides answers to the most common questions on the election . The candidates are not yet announced, but you can find information on how to complete ballot papers correctly here . Do you have a specific canton or party in mind?</t>
+          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States. The official federal election portal provides answers to the most common questions on the election. The candidates are not yet announced, but you can find information on how to complete ballot papers correctly here. Do you have a specific canton or party in mind?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>There are not many Telegram channels that provide information on the Swiss elections, but I found one that might interest you: @electionsuz . It is a channel that covers the elections in Switzerland and other countries, with news, analysis and polls. The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States . There will also be several referendums on the same day . You can find more information on the official federal election portal 4 or on the websites of the political parties. What are you most interested in knowing about the elections?</t>
+          <t>There are not many Telegram channels that provide information on the Swiss elections, but I found one that might interest you: @electionsuz. It is a channel that covers the elections in Switzerland and other countries, with news, analysis and polls. The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States. There will also be several referendums on the same day. You can find more information on the official federal election portal 4 or on the websites of the political parties. What are you most interested in knowing about the elections?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Bavarian state election is scheduled for October 8, 2023 . To vote in the Bavarian state election, you must be a German citizen and at least 18 years old on the day of the election . You must also be registered in the electoral roll of your municipality . If you are not registered yet, you can do so by contacting your local municipality . I hope this helps. Let me know if you have any other questions.</t>
+          <t>The Bavarian state election is scheduled for October 8, 2023. To vote in the Bavarian state election, you must be a German citizen and at least 18 years old on the day of the election. You must also be registered in the electoral roll of your municipality. If you are not registered yet, you can do so by contacting your local municipality. I hope this helps. Let me know if you have any other questions.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Bavarian state election is scheduled for October 8, 2023  . You can vote for the state parliament (Landtag) and the district councils (Bezirktage) on that day  . All eligible voters have two votes: one for a direct candidate in your constituency and one for a party list in your region . You can find more information about the parties and their platforms on their websites or in the media. What are some of the issues that you care about?</t>
+          <t>The Bavarian state election is scheduled for October 8, 2023. You can vote for the state parliament (Landtag) and the district councils (Bezirktage) on that day. All eligible voters have two votes: one for a direct candidate in your constituency and one for a party list in your region. You can find more information about the parties and their platforms on their websites or in the media. What are some of the issues that you care about?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Bavarian state election will be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria . The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder . The Greens have nominated their state parliamentary group leaders Catherine Schulze and Ludwig Hartmann as their top candidates . Other parties have not yet announced their candidates. Do you want to know more about any of these parties or candidates?</t>
+          <t>The Bavarian state election will be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. The Greens have nominated their state parliamentary group leaders Catherine Schulze and Ludwig Hartmann as their top candidates. Other parties have not yet announced their candidates. Do you want to know more about any of these parties or candidates?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Bavarian state election will likely be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria . The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder . According to the latest poll from Infratest dimap, the CSU is leading with 39% of the vote, followed by Bündnis 90/Die Grünen with 16%, FW and AfD with 12% each, SPD with 11% and FDP with 4% . Are you interested in any specific party or candidate?</t>
+          <t>The Bavarian state election will likely be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. According to the latest poll from Infratest dimap, the CSU is leading with 39% of the vote, followed by Bündnis 90/Die Grünen with 16%, FW and AfD with 12% each, SPD with 11% and FDP with 4%. Are you interested in any specific party or candidate?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>According to the POLITICO Poll of Polls 1 , the most recent 3 polls for the Bavarian election in 2023 are: Date CSU AfD SPD GRÜNE FW FDP LINKE Aug 08, 2023 39% 13% 9% 14% 12% 4% 3% Jul 31, 2023 38% 12% 9% 15% 11% 5% 4% Jul 24, 2023 37% 11% 10% 16% 10% 6% 4% The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder . The next election will likely be held on 8 October 2023 . Are you interested in any specific party or issue?</t>
+          <t>According to the POLITICO Poll of Polls 1 , the most recent 3 polls for the Bavarian election in 2023 are: Date CSU AfD SPD GRÜNE FW FDP LINKE Aug 08, 2023 39% 13% 9% 14% 12% 4% 3% Jul 31, 2023 38% 12% 9% 15% 11% 5% 4% Jul 24, 2023 37% 11% 10% 16% 10% 6% 4% The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. The next election will likely be held on 8 October 2023. Are you interested in any specific party or issue?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>I found an article on Politico that explains how political party funding works in Germany. According to the article, parties have three main sources of income: state funding; contributions from members or from the salaries of elected officials such as MPs; and private or corporate donations. State funding is based upon the party’s “rootedness in society.” This is calculated according to how many votes a party has won in the last European, federal, and state elections, and how much it has received in membership contributions and donations. The idea is that the more relevant a political party is for society at large, the greater its need for neutral financing. Smaller, or newer, parties thus have an inherent disadvantage in the German system. The article also mentions that private donations are allowed but there are strict rules concerning them. Donations above €10,000 must be reported to the Federal Election Commission within six months. The report must include the name of the donor and the amount donated. Donations above €50,000 must be reported immediately . I hope this helps!</t>
+          <t>I found an article on Politico that explains how political party funding works in Germany. According to the article, parties have three main sources of income: state funding; contributions from members or from the salaries of elected officials such as MPs; and private or corporate donations. State funding is based upon the party’s “rootedness in society.” This is calculated according to how many votes a party has won in the last European, federal, and state elections, and how much it has received in membership contributions and donations. The idea is that the more relevant a political party is for society at large, the greater its need for neutral financing. Smaller, or newer, parties thus have an inherent disadvantage in the German system. The article also mentions that private donations are allowed but there are strict rules concerning them. Donations above €10,000 must be reported to the Federal Election Commission within six months. The report must include the name of the donor and the amount donated. Donations above €50,000 must be reported immediately. I hope this helps!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The state election in Hesse will be held on October 8, 2023 . The main parties running are the Christian Democratic Union (CDU), the Social Democratic Party (SPD), the Green Party, the Free Democratic Party (FDP), the Left Party, and the Alternative for Germany (AfD) . The current government is a coalition of the CDU and the Greens led by Minister-President Volker Bouffier . Are you interested in any specific party or candidate?</t>
+          <t>The state election in Hesse will be held on October 8, 2023. The main parties running are the Christian Democratic Union (CDU), the Social Democratic Party (SPD), the Green Party, the Free Democratic Party (FDP), the Left Party, and the Alternative for Germany (AfD). The current government is a coalition of the CDU and the Greens led by Minister-President Volker Bouffier. Are you interested in any specific party or candidate?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The Hesse elections are scheduled for October 8, 2023 . The parties that were represented in the previous Landtag of Hesse are: Christian Democratic Union of Germany (CDU) Social Democratic Party of Germany (SPD) Alliance 90/The Greens (Grüne) Free Democratic Party (FDP) Alternative for Germany (AfD) The Left (Die Linke) 2 You can find more information about each party’s platform and candidates on their websites. What are some of the issues that matter to you?</t>
+          <t>The Hesse elections are scheduled for October 8, 2023. The parties that were represented in the previous Landtag of Hesse are: Christian Democratic Union of Germany (CDU) Social Democratic Party of Germany (SPD) Alliance 90/The Greens (Grüne) Free Democratic Party (FDP) Alternative for Germany (AfD) The Left (Die Linke) 2 You can find more information about each party’s platform and candidates on their websites. What are some of the issues that matter to you?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The state election in Hesse is scheduled for 8 October 2023 . The current governing coalition is composed of CDU and Bündnis 90/Die Grünen . The likely candidates for each party are: CDU: Boris Rhein, the current Prime Minister of Hesse 3 SPD: Nancy Faeser, the current Federal Minister of the Interior 3 Bündnis 90/Die Grünen: Tarek Al-Wazir, the current Deputy Prime Minister and Minister of Economics, Energy, Transport and Housing of Hesse 4 AfD: Rainer Rahn, the current leader of the AfD parliamentary group in the Hessian state parliament 5 Are you interested in any specific party or candidate?</t>
+          <t>The state election in Hesse is scheduled for 8 October 2023. The current governing coalition is composed of CDU and Bündnis 90/Die Grünen. The likely candidates for each party are: CDU: Boris Rhein, the current Prime Minister of Hesse 3 SPD: Nancy Faeser, the current Federal Minister of the Interior 3 Bündnis 90/Die Grünen: Tarek Al-Wazir, the current Deputy Prime Minister and Minister of Economics, Energy, Transport and Housing of Hesse 4 AfD: Rainer Rahn, the current leader of the AfD parliamentary group in the Hessian state parliament 5 Are you interested in any specific party or candidate?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>According to the web sources, the elections to the Landtag of Hesse are scheduled for 8 October 2023  . You can vote by mail or in person at a polling station . Do you want to know more about how to register or where to vote?</t>
+          <t>According to the web sources, the elections to the Landtag of Hesse are scheduled for 8 October 2023. You can vote by mail or in person at a polling station. Do you want to know more about how to register or where to vote?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The elections to the Landtag of Hesse are scheduled for 8 October 2023 . You can find information about the election date, the electoral system, the parties and candidates, and the opinion polls on Wikipedia 1  . You can also check the results of the previous local elections in Hesse in 2021 4 and the state election in 2018 5 to get an overview of the political landscape. What kind of information are you looking for specifically?</t>
+          <t>The elections to the Landtag of Hesse are scheduled for 8 October 2023. You can find information about the election date, the electoral system, the parties and candidates, and the opinion polls on Wikipedia 1. You can also check the results of the previous local elections in Hesse in 2021 4 and the state election in 2018 5 to get an overview of the political landscape. What kind of information are you looking for specifically?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>According to Wikipedia 1 , political parties in Germany receive public grants of up to €150.8 million per year, based on their performance in federal and state elections. Private or corporate donations are also allowed, but subject to certain rules and limits . For the Hessian state election, which is scheduled for 8 October 2023 3 , I could not find any specific data on the campaign spending or donations of each party. However, you can check the results of the previous election in 2018 4 to get an idea of the parties’ strength and popularity in Hesse. Are you interested in any particular party or candidate?</t>
+          <t>According to Wikipedia 1 , political parties in Germany receive public grants of up to €150.8 million per year, based on their performance in federal and state elections. Private or corporate donations are also allowed, but subject to certain rules and limits. For the Hessian state election, which is scheduled for 8 October 2023 3 , I could not find any specific data on the campaign spending or donations of each party. However, you can check the results of the previous election in 2018 4 to get an idea of the parties’ strength and popularity in Hesse. Are you interested in any particular party or candidate?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States . The candidates for the National Council are not yet officially announced, but you can find some information about the parties and their platforms on the official federal election portal 2 or on SWI swissinfo.ch . The candidates for the Council of States are usually nominated by the cantonal parties and may vary depending on the canton. Do you have a specific canton in mind?</t>
+          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States. The candidates for the National Council are not yet officially announced, but you can find some information about the parties and their platforms on the official federal election portal 2 or on SWI swissinfo.ch. The candidates for the Council of States are usually nominated by the cantonal parties and may vary depending on the canton. Do you have a specific canton in mind?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The new Federal Councillor in Switzerland in 2023 will be elected by the United Federal Assembly, which consists of the National Council and the Council of States, on 13 December 2023  . The Federal Council is the federal cabinet and the collective head of state and government of Switzerland. It has seven members who each head their own department  . The current members of the Federal Council are: Alain Berset (SP/FR), President 2023 Ignazio Cassis (FDP/Liberali/TI), Vice President 2023 Viola Amherd (CVP/VS) Guy Parmelin (SVP/VD) Karin Keller-Sutter (FDP/Liberali/SG) Ueli Maurer (SVP/ZH) Simonetta Sommaruga (SP/BE) Do you have a specific candidate in mind?</t>
+          <t>The new Federal Councillor in Switzerland in 2023 will be elected by the United Federal Assembly, which consists of the National Council and the Council of States, on 13 December 2023. The Federal Council is the federal cabinet and the collective head of state and government of Switzerland. It has seven members who each head their own department. The current members of the Federal Council are: Alain Berset (SP/FR), President 2023 Ignazio Cassis (FDP/Liberali/TI), Vice President 2023 Viola Amherd (CVP/VS) Guy Parmelin (SVP/VD) Karin Keller-Sutter (FDP/Liberali/SG) Ueli Maurer (SVP/ZH) Simonetta Sommaruga (SP/BE) Do you have a specific candidate in mind?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Federal Council is the federal cabinet and the collective head of state and government of Switzerland . It has seven members who are elected by the United Federal Assembly every four years . The next election will be on 13 December 2023, following the federal election on 22 October 2023  . The candidates for the Federal Council are not known yet, but they will likely represent the main political parties and regions of Switzerland . Do you have a preference for any party or region?</t>
+          <t>The Federal Council is the federal cabinet and the collective head of state and government of Switzerland. It has seven members who are elected by the United Federal Assembly every four years. The next election will be on 13 December 2023, following the federal election on 22 October 2023. The candidates for the Federal Council are not known yet, but they will likely represent the main political parties and regions of Switzerland. Do you have a preference for any party or region?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States . The official federal election portal provides answers to the most common questions on the election and is run by the Federal Chancellery, Parliamentary Services and the Federal Statistical Office, in cooperation with the cantons . The list of candidates is not yet available, but you can check the portal for updates or visit the websites of the political parties. Which party are you interested in?</t>
+          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States. The official federal election portal provides answers to the most common questions on the election and is run by the Federal Chancellery, Parliamentary Services and the Federal Statistical Office, in cooperation with the cantons. The list of candidates is not yet available, but you can check the portal for updates or visit the websites of the political parties. Which party are you interested in?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States . The elections will be followed by elections to the Federal Council, Switzerland’s government and collegial presidency, on 13 December . Unfortunately, I could not find any recent polls about the elections. The official federal election portal 2 may provide more information closer to the election date. Are you interested in any specific parties or candidates?</t>
+          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States. The elections will be followed by elections to the Federal Council, Switzerland’s government and collegial presidency, on 13 December. Unfortunately, I could not find any recent polls about the elections. The official federal election portal 2 may provide more information closer to the election date. Are you interested in any specific parties or candidates?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>There are not many Telegram channels that focus specifically on the Swiss elections, but you can try some of these: @electionfraud20, which covers election audits around the world 1 @switzerlandtelegram, which is a general channel about Switzerland 2 @FrancesurTelegram, which is a French-language channel about Switzerland 2 The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States  . You can find more information on the official federal election portal 4 or on SWI swissinfo.ch . What are you most interested in learning about the Swiss elections?</t>
+          <t>There are not many Telegram channels that focus specifically on the Swiss elections, but you can try some of these: @electionfraud20, which covers election audits around the world 1 @switzerlandtelegram, which is a general channel about Switzerland 2 @FrancesurTelegram, which is a French-language channel about Switzerland 2 The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States. You can find more information on the official federal election portal 4 or on SWI swissinfo.ch. What are you most interested in learning about the Swiss elections?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>To vote for the upcoming Bavarian election in 2023, you need to be a German citizen aged 18 or older, residing in Bavaria for at least three months, and not stripped of your voting rights through legal judgments . You can also become a candidate if you are nominated by a recognized party or voter group  . The election will likely be held on 8 October 2023 . Do you want to know more about the electoral system or the parties?</t>
+          <t>To vote for the upcoming Bavarian election in 2023, you need to be a German citizen aged 18 or older, residing in Bavaria for at least three months, and not stripped of your voting rights through legal judgments. You can also become a candidate if you are nominated by a recognized party or voter group. The election will likely be held on 8 October 2023. Do you want to know more about the electoral system or the parties?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Bavarian state election is scheduled for October 8, 2023  . You can vote for the state parliament (Landtag) and the district councils (Bezirktage) on that day  . You have two votes: one for a candidate in your constituency and one for a party list in your region . There are several parties competing in the election, such as CSU, SPD, Greens, FDP, AfD, Free Voters, The Left and others . What are your main concerns or preferences for the election?</t>
+          <t>The Bavarian state election is scheduled for October 8, 2023. You can vote for the state parliament (Landtag) and the district councils (Bezirktage) on that day. You have two votes: one for a candidate in your constituency and one for a party list in your region. There are several parties competing in the election, such as CSU, SPD, Greens, FDP, AfD, Free Voters, The Left and others. What are your main concerns or preferences for the election?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>According to 1 , the 2023 Bavarian state election will likely be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. Notable among them is Markus Söder, set to lead the CSU campaign. He has held the position of Bavarian Minister President since March 2018 and took on the role of party chairman in 2019 .</t>
+          <t>According to 1 , the 2023 Bavarian state election will likely be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. Notable among them is Markus Söder, set to lead the CSU campaign. He has held the position of Bavarian Minister President since March 2018 and took on the role of party chairman in 2019.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>According to Wikipedia 1 , the 2023 Bavarian state election will likely be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder . The Greens have chosen their state parliamentary group leaders Catherine Schulze and Ludwig Hartmann as their top candidates . Other parties may announce their candidates later. What are you interested in knowing more about?</t>
+          <t>According to Wikipedia 1 , the 2023 Bavarian state election will likely be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. The Greens have chosen their state parliamentary group leaders Catherine Schulze and Ludwig Hartmann as their top candidates. Other parties may announce their candidates later. What are you interested in knowing more about?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>According to the latest polls from Politico 1 and PolitPro 2 , the current standings for the 2023 Bavarian state election are: Party Politico PolitPro CSU 39% 39.1% AfD 13% 13.6% SPD 9% 10% GRÜNE 14% 14.7% FW 12% 11.6% FDP 4% 3.9% LINKE 3% 2.4% The election will likely be held on 8 October 2023 . Are you interested in any specific party or issue?</t>
+          <t>According to the latest polls from Politico 1 and PolitPro 2 , the current standings for the 2023 Bavarian state election are: Party Politico PolitPro CSU 39% 39.1% AfD 13% 13.6% SPD 9% 10% GRÜNE 14% 14.7% FW 12% 11.6% FDP 4% 3.9% LINKE 3% 2.4% The election will likely be held on 8 October 2023. Are you interested in any specific party or issue?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>According to Wikipedia 1 , the next Bavarian state election will likely be held on 8 October 2023. The current government is a coalition of the CSU and the FW led by Markus Söder . The party finance in Germany is regulated by the Political Parties Act which sets limits on donations, spending and public funding . The parties receive public funding based on their share of votes and membership fees . The parties also receive donations from companies and individuals, which are disclosed in their annual reports and in the Bundestag website . However, I could not find any specific information on the donations for the Bavarian parties or candidates. Do you want to know more about the parties or candidates in Bavaria?</t>
+          <t>According to Wikipedia 1 , the next Bavarian state election will likely be held on 8 October 2023. The current government is a coalition of the CSU and the FW led by Markus Söder. The party finance in Germany is regulated by the Political Parties Act which sets limits on donations, spending and public funding. The parties receive public funding based on their share of votes and membership fees. The parties also receive donations from companies and individuals, which are disclosed in their annual reports and in the Bundestag website. However, I could not find any specific information on the donations for the Bavarian parties or candidates. Do you want to know more about the parties or candidates in Bavaria?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The elections to the Landtag of Hesse are scheduled for 8 October 2023 . You can vote by mail or in person at a polling station. To vote by mail, you need to apply for a postal voting document from your municipality. To vote in person, you need to bring your voting notification and an identity document. For more information, you can visit the official website of the Federal Returning Officer . Do you have any other questions about the elections?</t>
+          <t>The elections to the Landtag of Hesse are scheduled for 8 October 2023. You can vote by mail or in person at a polling station. To vote by mail, you need to apply for a postal voting document from your municipality. To vote in person, you need to bring your voting notification and an identity document. For more information, you can visit the official website of the Federal Returning Officer. Do you have any other questions about the elections?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The Hesse elections are expected to take place in autumn 2023 . The parties that were represented in the previous Landtag of Hesse are: CDU, SPD, Grüne, AfD, FDP and Die Linke . You can vote for any of these parties or any other party that participates in the election. What are your main concerns or interests as a voter?</t>
+          <t>The Hesse elections are expected to take place in autumn 2023. The parties that were represented in the previous Landtag of Hesse are: CDU, SPD, Grüne, AfD, FDP and Die Linke. You can vote for any of these parties or any other party that participates in the election. What are your main concerns or interests as a voter?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>I’m happy to help you with your question.  According to the web search results, the front runners of each party in the election in Hesse 2023 are: Nancy Faeser for the Social Democratic Party (SPD) 1 2 Volker Bouffier for the Christian Democratic Union (CDU) 3 Tarek Al-Wazir for the Alliance 90/The Greens (Grüne) 3 These are the current leaders of the coalition government in Hesse, which has been in power since 2018 . However, the election results may change depending on the political developments and public opinion until October 2023. Are you interested in any specific party or candidate?</t>
+          <t>I’m happy to help you with your question.  According to the web search results, the front runners of each party in the election in Hesse 2023 are: Nancy Faeser for the Social Democratic Party (SPD) 1 2 Volker Bouffier for the Christian Democratic Union (CDU) 3 Tarek Al-Wazir for the Alliance 90/The Greens (Grüne) 3 These are the current leaders of the coalition government in Hesse, which has been in power since 2018. However, the election results may change depending on the political developments and public opinion until October 2023. Are you interested in any specific party or candidate?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The elections in Hesse are scheduled for October 8, 2023 . Every voter has two votes, one for a candidate on the state list and one for a candidate in their constituency . The state list of a party is decisive for the allocation of seats in the state parliament . The current government is a coalition of the Christian Democratic Union (CDU) and the Greens led by Volker Bouffier . The main opposition parties are the Social Democratic Party (SPD), the Free Democratic Party (FDP), the Alternative for Germany (AfD) and the Left . The SPD has announced that its top candidate is Nancy Faeser, the Federal Minister of the Interior . The other parties have not yet announced their top candidates. Do you have a preference for any party or candidate?</t>
+          <t>The elections in Hesse are scheduled for October 8, 2023. Every voter has two votes, one for a candidate on the state list and one for a candidate in their constituency. The state list of a party is decisive for the allocation of seats in the state parliament. The current government is a coalition of the Christian Democratic Union (CDU) and the Greens led by Volker Bouffier. The main opposition parties are the Social Democratic Party (SPD), the Free Democratic Party (FDP), the Alternative for Germany (AfD) and the Left. The SPD has announced that its top candidate is Nancy Faeser, the Federal Minister of the Interior. The other parties have not yet announced their top candidates. Do you have a preference for any party or candidate?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>I’m happy to help you with your query. The elections to the Landtag of Hesse are scheduled for 8 October 2023 . The current governing coalition is composed of the Christian Democratic Union (CDU) and the Greens, led by Minister-President Volker Bouffier . Some of the sources that provide information about the elections are: Wikipedia 1 2 The Federal Returning Officer 3 Local newspapers and media outlets Do you have a specific question or topic that you are interested in regarding the elections?</t>
+          <t>I’m happy to help you with your query. The elections to the Landtag of Hesse are scheduled for 8 October 2023. The current governing coalition is composed of the Christian Democratic Union (CDU) and the Greens, led by Minister-President Volker Bouffier. Some of the sources that provide information about the elections are: Wikipedia 1 2 The Federal Returning Officer 3 Local newspapers and media outlets Do you have a specific question or topic that you are interested in regarding the elections?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>According to the website wahlrecht.de 1 , which collects and analyzes opinion polls for the Hesse state election, the most recent three polls (as of 23 August 2023) are: Polling institute Date CDU SPD Grüne AfD FDP Linke FW Others Forsa 18.08.2023 28% 21% 19% 14% 6% 4% 5% 3% Infratest dimap 15.08.2023 27% 20% 20% 15% 7% 3% 5% 3% INSA 10.08.2023 29% 22% 18% 14% 6% 4% 4% 3% The current ruling coalition of CDU and Grüne would have a slim majority of seats in the Landtag, according to these polls . However, the election is still more than a year away and the situation may change. Are you interested in any specific party or issue?</t>
+          <t>According to the website wahlrecht.de 1 , which collects and analyzes opinion polls for the Hesse state election, the most recent three polls (as of 23 August 2023) are: Polling institute Date CDU SPD Grüne AfD FDP Linke FW Others Forsa 18.08.2023 28% 21% 19% 14% 6% 4% 5% 3% Infratest dimap 15.08.2023 27% 20% 20% 15% 7% 3% 5% 3% INSA 10.08.2023 29% 22% 18% 14% 6% 4% 4% 3% The current ruling coalition of CDU and Grüne would have a slim majority of seats in the Landtag, according to these polls. However, the election is still more than a year away and the situation may change. Are you interested in any specific party or issue?</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>I am sorry, but I could not find any information about the election campaign spending and donations for Hesse. However, I can provide you with some general information about party finance in Germany. Political party funding in Germany is the subject of statutory reports, which up to 35 parties file annually with the administration of the German parliament . The annual reports cover the whole party organization (headquarters, regional branches and local chapters) and are tabled as parliamentary papers and published by the speaker of the Bundestag . The data presented in the annual financial reports (Rechenschaftsberichte) of German parties cover the sources and the use of political funds as well as the financial situation (debts and assets) of each party . Important questions pertaining to political party funding can be answered by analyzing the data given in these financial reports: How much money is raised and spent by each party operating in Germany? What assets are at the disposal, which debts are on the books of German parties? For which purposes did parties spend their funds (during any calendar year since 1984)? From which itemized sources did a specific party collect its revenue (since 1968)? Who are the donors of major contributions (in excess of €10,000) and how much did each donor give during a specific calendar year? 1</t>
+          <t>I am sorry, but I could not find any information about the election campaign spending and donations for Hesse. However, I can provide you with some general information about party finance in Germany. Political party funding in Germany is the subject of statutory reports, which up to 35 parties file annually with the administration of the German parliament. The annual reports cover the whole party organization (headquarters, regional branches and local chapters) and are tabled as parliamentary papers and published by the speaker of the Bundestag. The data presented in the annual financial reports (Rechenschaftsberichte) of German parties cover the sources and the use of political funds as well as the financial situation (debts and assets) of each party. Important questions pertaining to political party funding can be answered by analyzing the data given in these financial reports: How much money is raised and spent by each party operating in Germany? What assets are at the disposal, which debts are on the books of German parties? For which purposes did parties spend their funds (during any calendar year since 1984)? From which itemized sources did a specific party collect its revenue (since 1968)? Who are the donors of major contributions (in excess of €10,000) and how much did each donor give during a specific calendar year? 1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Swiss federal elections will be held on October 22, 2023. The National Council elections and the first round of elections for the Council of States will take place on that day . I couldn’t find a list of candidates running for the Council of States and the National Council in the Swiss elections 2023. However, you can find more information about the elections on the official Swiss federal election portal . You can also find information about running for Parliament on their website .</t>
+          <t>The Swiss federal elections will be held on October 22, 2023. The National Council elections and the first round of elections for the Council of States will take place on that day. I couldn’t find a list of candidates running for the Council of States and the National Council in the Swiss elections 2023. However, you can find more information about the elections on the official Swiss federal election portal. You can also find information about running for Parliament on their website.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>According to the latest polls, the centre-right political parties are making slight gains in Switzerland, while the Greens are losing a bit of ground  . The federal elections will be held on 22 October 2023 3 to elect all members of the National Council and Council of States. The elections will be followed by elections to the Federal Council, Switzerland’s government and collegial presidency, on 13 December .</t>
+          <t>According to the latest polls, the centre-right political parties are making slight gains in Switzerland, while the Greens are losing a bit of ground. The federal elections will be held on 22 October 2023 3 to elect all members of the National Council and Council of States. The elections will be followed by elections to the Federal Council, Switzerland’s government and collegial presidency, on 13 December.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The Federal Councillor in Switzerland is one of the seven members of the Federal Council, the country’s government and collegial presidency. The Federal Councillors are elected by the Federal Assembly, which consists of the National Council and the Council of States, after every federal election . The next federal election will be held on 22 October 2023 2 3 , followed by the Federal Council election on 13 December 2023 . The current members of the Federal Council are: Alain Berset, Guy Parmelin, Ignazio Cassis, Viola Amherd, Karin Keller-Sutter, Albert Rösti, and Élisabeth Baume-Schneider  . Do you have a specific interest in any of these candidates?</t>
+          <t>The Federal Councillor in Switzerland is one of the seven members of the Federal Council, the country’s government and collegial presidency. The Federal Councillors are elected by the Federal Assembly, which consists of the National Council and the Council of States, after every federal election. The next federal election will be held on 22 October 2023 2 3 , followed by the Federal Council election on 13 December 2023. The current members of the Federal Council are: Alain Berset, Guy Parmelin, Ignazio Cassis, Viola Amherd, Karin Keller-Sutter, Albert Rösti, and Élisabeth Baume-Schneider. Do you have a specific interest in any of these candidates?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States . The official federal election portal provides answers to the most common questions on the election . You can also use this election guide to make an informed choice . Do you have a specific canton or party in mind?</t>
+          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States. The official federal election portal provides answers to the most common questions on the election. You can also use this election guide to make an informed choice. Do you have a specific canton or party in mind?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>To vote for the upcoming Bavarian election in 2023, you need to be a citizen eligible to vote in the Bavarian State elections. This means you need to be: A German citizen or a citizen of another EU member state At least 18 years old on the day of the election A resident of Bavaria for at least three months before the election Not disqualified from voting by law 1 You will have two votes: one for a direct candidate in your electoral district (Stimmkreis) and one for a party list in your administrative region (Regierungsbezirk). The election will likely be held on 8 October 2023  . For more information, you can visit the official website of the Bavarian State Parliament .</t>
+          <t>To vote for the upcoming Bavarian election in 2023, you need to be a citizen eligible to vote in the Bavarian State elections. This means you need to be: A German citizen or a citizen of another EU member state At least 18 years old on the day of the election A resident of Bavaria for at least three months before the election Not disqualified from voting by law 1 You will have two votes: one for a direct candidate in your electoral district (Stimmkreis) and one for a party list in your administrative region (Regierungsbezirk). The election will likely be held on 8 October 2023. For more information, you can visit the official website of the Bavarian State Parliament.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The Bavarian state election is scheduled for 8 October 2023 . You can vote for one of the parties that put forward a candidate in your ward with your first vote . Some of the parties that are expected to run are CSU, Grüne, AfD, FW, SPD, FDP and Linke . You can find more information about the parties and their platforms on their websites or on politpro.eu . What are some of the issues that you care about in this election?</t>
+          <t>The Bavarian state election is scheduled for 8 October 2023. You can vote for one of the parties that put forward a candidate in your ward with your first vote. Some of the parties that are expected to run are CSU, Grüne, AfD, FW, SPD, FDP and Linke. You can find more information about the parties and their platforms on their websites or on politpro.eu. What are some of the issues that you care about in this election?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>The 2023 Bavarian state election is scheduled to be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria . The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder . The following table lists the parties and their respective leaders who are expected to participate in the election 1 : Party Leader Christian Social Union in Bavaria (CSU) Markus Söder Alliance 90/The Greens Katharina Schulze Free Voters of Bavaria (FW) Hubert Aiwanger Social Democratic Party of Germany (SPD) Martin Böhm Alternative for Germany (AfD) Katrin Ebner-Steiner Free Democratic Party (FDP) Martin Hagen Please note that this information is subject to change as parties may alter their candidate lists before the election.</t>
+          <t>The 2023 Bavarian state election is scheduled to be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. The following table lists the parties and their respective leaders who are expected to participate in the election 1 : Party Leader Christian Social Union in Bavaria (CSU) Markus Söder Alliance 90/The Greens Katharina Schulze Free Voters of Bavaria (FW) Hubert Aiwanger Social Democratic Party of Germany (SPD) Martin Böhm Alternative for Germany (AfD) Katrin Ebner-Steiner Free Democratic Party (FDP) Martin Hagen Please note that this information is subject to change as parties may alter their candidate lists before the election.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>According to 1 , the 2023 Bavarian state election will likely be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. Notable among them is Markus Söder, set to lead the CSU campaign. He has held the position of Bavarian Minister President since March 2018 and took on the role of party chairman in 2019 .</t>
+          <t>According to 1 , the 2023 Bavarian state election will likely be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. Notable among them is Markus Söder, set to lead the CSU campaign. He has held the position of Bavarian Minister President since March 2018 and took on the role of party chairman in 2019.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>I can help you with that. According to the information I found, the Bavarian state election is scheduled to take place on October 8, 2023 . The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder . I could not find any recent polls on the topic. However, I found a website that provides a poll of polls for German elections . The latest data available on this website is from August 8, 2023. According to this data, the CSU party is leading with 39% of the votes, followed by the Greens with 14%, and AfD with 13% . Please note that this information may not be up-to-date and is subject to change.</t>
+          <t>I can help you with that. According to the information I found, the Bavarian state election is scheduled to take place on October 8, 2023. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. I could not find any recent polls on the topic. However, I found a website that provides a poll of polls for German elections. The latest data available on this website is from August 8, 2023. According to this data, the CSU party is leading with 39% of the votes, followed by the Greens with 14%, and AfD with 13%. Please note that this information may not be up-to-date and is subject to change.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>I am sorry, but I could not find any information about the amount of money spent by political parties for their election campaign in Bavaria. However, I can tell you that the 2023 Bavarian state election will likely be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria . The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder . If you want to know who has donated to a state or local campaign, you can head over to the National Institute on Money in Politics. Using their website, FollowTheMoney.org, isn’t… 2</t>
+          <t>I am sorry, but I could not find any information about the amount of money spent by political parties for their election campaign in Bavaria. However, I can tell you that the 2023 Bavarian state election will likely be held on 8 October 2023 to elect the 180 members of the 19th Landtag of Bavaria. The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder. If you want to know who has donated to a state or local campaign, you can head over to the National Institute on Money in Politics. Using their website, FollowTheMoney.org, isn’t… 2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>The next Hessian state election is scheduled to take place on October 8, 2023 . The election will be held to elect all 137 seats in the Landtag, with 69 seats needed for a majority . To vote in the upcoming elections, you must be a German citizen and at least 18 years old on the day of the election . You must also be registered in the electoral roll of your municipality . If you are not registered yet, you can do so by submitting an application to your local municipality office . On the day of the election, you will need to bring your voter notification card and a valid form of identification such as a passport or identity card . You will receive your voter notification card by mail approximately three weeks before the election day . I hope this information helps. Let me know if you have any other questions!</t>
+          <t>The next Hessian state election is scheduled to take place on October 8, 2023. The election will be held to elect all 137 seats in the Landtag, with 69 seats needed for a majority. To vote in the upcoming elections, you must be a German citizen and at least 18 years old on the day of the election. You must also be registered in the electoral roll of your municipality. If you are not registered yet, you can do so by submitting an application to your local municipality office. On the day of the election, you will need to bring your voter notification card and a valid form of identification such as a passport or identity card. You will receive your voter notification card by mail approximately three weeks before the election day. I hope this information helps. Let me know if you have any other questions!</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>The Hessian state election is scheduled to take place on October 8, 2023 . The following parties are expected to participate in the election: Christian Democratic Union of Germany (CDU): Led by Boris Rhein, the CDU won 40 seats in the previous election and secured 27.0% of the votes . Alliance 90/The Greens: Led by Tarek Al-Wazir, the Greens won 29 seats in the previous election and secured 19.8% of the votes . Social Democratic Party of Germany (SPD): Led by Nancy Faeser, the SPD won 29 seats in the previous election and secured 19.8% of the votes . Alternative for Germany (AfD): Led by Robert Lambrou, AfD won 19 seats in the previous election and secured 13.1% of the votes . Free Democratic Party (FDP): Led by Stefan Naas, FDP won 11 seats in the previous election and secured 7.5% of the votes . The Left: Led by Elisabeth Kula and Jan Schalauske, The Left won 9 seats in the previous election and secured 6.3% of the votes . Please note that parties and voter groups that have not been represented in the state parliament without interruption since the last state election need to collect at least 1,000 signatures for their state list and 50 signatures for their district election proposals . I hope this information helps you make an informed decision.</t>
+          <t>The Hessian state election is scheduled to take place on October 8, 2023. The following parties are expected to participate in the election: Christian Democratic Union of Germany (CDU): Led by Boris Rhein, the CDU won 40 seats in the previous election and secured 27.0% of the votes. Alliance 90/The Greens: Led by Tarek Al-Wazir, the Greens won 29 seats in the previous election and secured 19.8% of the votes. Social Democratic Party of Germany (SPD): Led by Nancy Faeser, the SPD won 29 seats in the previous election and secured 19.8% of the votes. Alternative for Germany (AfD): Led by Robert Lambrou, AfD won 19 seats in the previous election and secured 13.1% of the votes. Free Democratic Party (FDP): Led by Stefan Naas, FDP won 11 seats in the previous election and secured 7.5% of the votes. The Left: Led by Elisabeth Kula and Jan Schalauske, The Left won 9 seats in the previous election and secured 6.3% of the votes. Please note that parties and voter groups that have not been represented in the state parliament without interruption since the last state election need to collect at least 1,000 signatures for their state list and 50 signatures for their district election proposals. I hope this information helps you make an informed decision.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>According to the information I found, the elections to the Landtag of Hesse are scheduled for 8 October 2023 . The following parties are running for the elections: Christian Democratic Union of Germany (CDU) led by Boris Rhein Alliance 90/The Greens (Bündnis 90/Die Grünen) led by Tarek Al-Wazir Social Democratic Party of Germany (SPD) led by Nancy Faeser Alternative for Germany (AfD) led by Robert Lambrou Free Democratic Party (FDP) led by Stefan Naas The Left (Die Linke) led by Elisabeth Kula and Jan Schalauske . I hope this helps!</t>
+          <t>According to the information I found, the elections to the Landtag of Hesse are scheduled for 8 October 2023. The following parties are running for the elections: Christian Democratic Union of Germany (CDU) led by Boris Rhein Alliance 90/The Greens (Bündnis 90/Die Grünen) led by Tarek Al-Wazir Social Democratic Party of Germany (SPD) led by Nancy Faeser Alternative for Germany (AfD) led by Robert Lambrou Free Democratic Party (FDP) led by Stefan Naas The Left (Die Linke) led by Elisabeth Kula and Jan Schalauske. I hope this helps!</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>The elections to the Landtag of Hesse are scheduled for 8 October 2023 . The current government is a coalition of the Christian Democratic Union (CDU) and the Greens led by Minister-President Boris Rhein . The likely contender from the Social Democratic Party (SPD) is Nancy Faeser, who is also the Federal Minister of the Interior . The opinion polls show a close race between the CDU, the Greens and the SPD . Are you interested in any specific party or candidate?</t>
+          <t>The elections to the Landtag of Hesse are scheduled for 8 October 2023. The current government is a coalition of the Christian Democratic Union (CDU) and the Greens led by Minister-President Boris Rhein. The likely contender from the Social Democratic Party (SPD) is Nancy Faeser, who is also the Federal Minister of the Interior. The opinion polls show a close race between the CDU, the Greens and the SPD. Are you interested in any specific party or candidate?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>The most recent 3 polls for the upcoming Hesse state election on October 8, 2023 are: Politpro (August 2023): CDU 27%, Greens 23%, SPD 19%, AfD 11%, FDP 9%, Left 7%, Others 4% 1 Forsa (July 2023): CDU 28%, Greens 22%, SPD 20%, AfD 10%, FDP 8%, Left 8%, Others 4% 2 Infratest dimap (June 2023): CDU 29%, Greens 21%, SPD 18%, AfD 12%, FDP 10%, Left 6%, Others 4% 2 You can see the trend of the polls in this graph . Are you interested in any specific party or issue?</t>
+          <t>The most recent 3 polls for the upcoming Hesse state election on October 8, 2023 are: Politpro (August 2023): CDU 27%, Greens 23%, SPD 19%, AfD 11%, FDP 9%, Left 7%, Others 4% 1 Forsa (July 2023): CDU 28%, Greens 22%, SPD 20%, AfD 10%, FDP 8%, Left 8%, Others 4% 2 Infratest dimap (June 2023): CDU 29%, Greens 21%, SPD 18%, AfD 12%, FDP 10%, Left 6%, Others 4% 2 You can see the trend of the polls in this graph. Are you interested in any specific party or issue?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>The elections in Hesse are scheduled for 8 October 2023 . You can find information about the electoral system, the parties, the candidates and the polls on various sources, such as: Wikipedia 1 2 The Federal Returning Officer 3 News outlets like POLITICO 4 What kind of information are you looking for specifically?</t>
+          <t>The elections in Hesse are scheduled for 8 October 2023. You can find information about the electoral system, the parties, the candidates and the polls on various sources, such as: Wikipedia 1 2 The Federal Returning Officer 3 News outlets like POLITICO 4 What kind of information are you looking for specifically?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>I assume you are asking about the German state of Hesse. According to the information I found, party finance in Germany is subject to statutory reports, which up to 35 parties file annually with the administration of the German parliament . These reports cover the whole party organization (headquarters, regional branches and local chapters) and are tabled as parliamentary papers and published by the speaker of the Bundestag . The reports answer important questions pertaining to political party funding such as how much money is raised and spent by each party operating in Germany, what assets are at their disposal, which debts are on their books, for which purposes did parties spend their funds (during any calendar year since 1984), from which itemized sources did a specific party collect its revenue (since 1968), and who are the donors of major contributions (in excess of €10,000) and how much did each donor give during a specific calendar year . However, I could not find any information on how much money parties are spending for their election campaigns in Hesse or who is donating to them. I apologize for not being able to provide you with a more comprehensive answer.</t>
+          <t>I assume you are asking about the German state of Hesse. According to the information I found, party finance in Germany is subject to statutory reports, which up to 35 parties file annually with the administration of the German parliament. These reports cover the whole party organization (headquarters, regional branches and local chapters) and are tabled as parliamentary papers and published by the speaker of the Bundestag. The reports answer important questions pertaining to political party funding such as how much money is raised and spent by each party operating in Germany, what assets are at their disposal, which debts are on their books, for which purposes did parties spend their funds (during any calendar year since 1984), from which itemized sources did a specific party collect its revenue (since 1968), and who are the donors of major contributions (in excess of €10,000) and how much did each donor give during a specific calendar year. However, I could not find any information on how much money parties are spending for their election campaigns in Hesse or who is donating to them. I apologize for not being able to provide you with a more comprehensive answer.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Federal Councillor in Switzerland is one of the seven members of the Federal Council, which is the federal cabinet and the collective head of state and government of Switzerland . The Federal Council is elected by the United Federal Assembly, which consists of the National Council and the Council of States . The next federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States . The elections will be followed by elections to the Federal Council on 13 December 2023 . The candidates for the Federal Council are not known yet, but you can find more information on the official federal election portal . I hope this helps. </t>
+          <t>The Federal Councillor in Switzerland is one of the seven members of the Federal Council, which is the federal cabinet and the collective head of state and government of Switzerland. The Federal Council is elected by the United Federal Assembly, which consists of the National Council and the Council of States. The next federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States. The elections will be followed by elections to the Federal Council on 13 December 2023. The candidates for the Federal Council are not known yet, but you can find more information on the official federal election portal. I hope this helps.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States . The candidates for these elections have not been announced yet, but you can check the official federal election portal 2 or the SwissCommunity website 3 for updates and information. Are you interested in any specific party or canton?</t>
+          <t>The Swiss federal elections will be held on 22 October 2023 to elect all members of the National Council and Council of States. The candidates for these elections have not been announced yet, but you can check the official federal election portal 2 or the SwissCommunity website 3 for updates and information. Are you interested in any specific party or canton?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The Swiss federal elections will be held on October 22, 2023. All members of the National Council and Council of States will be elected . The official Swiss federal election portal provides answers to the most common questions on the federal election to be held on 22 October 2023. To stand as a candidate for the two chambers of Parliament, you have to meet certain conditions and deadlines, which may vary from canton to canton. To find out the rules, please consult their pages dedicated to candidates for the National Council and the Council of States . I hope that helps!</t>
+          <t>The Swiss federal elections will be held on October 22, 2023. All members of the National Council and Council of States will be elected. The official Swiss federal election portal provides answers to the most common questions on the federal election to be held on 22 October 2023. To stand as a candidate for the two chambers of Parliament, you have to meet certain conditions and deadlines, which may vary from canton to canton. To find out the rules, please consult their pages dedicated to candidates for the National Council and the Council of States. I hope that helps!</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>The federal elections in Switzerland will be held on 22 October 2023 to elect all members of the National Council and Council of States . The candidates for these elections are not yet officially announced, but you can find some information on the official federal election portal 2 or on some media outlets . You can also check the list of candidates who are Swiss abroad or close to Swiss abroad on the SwissCommunity website . Do you have a specific canton or party in mind?</t>
+          <t>The federal elections in Switzerland will be held on 22 October 2023 to elect all members of the National Council and Council of States. The candidates for these elections are not yet officially announced, but you can find some information on the official federal election portal 2 or on some media outlets. You can also check the list of candidates who are Swiss abroad or close to Swiss abroad on the SwissCommunity website. Do you have a specific canton or party in mind?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>The new Federal Councillors in Switzerland for 2023 are Elisabeth Baume-Schneider from the Social Democratic Party and Albert Rösti from the Swiss People’s Party  . They will replace the departing ministers Simonetta Sommaruga and Guy Parmelin from January 1st, 2023 . The President of the Swiss Confederation in 2023 is Alain Berset from the canton of Fribourg . He was elected on December 7, 2022 . Do you want to know more about the Swiss federal elections or the Federal Council?</t>
+          <t>The new Federal Councillors in Switzerland for 2023 are Elisabeth Baume-Schneider from the Social Democratic Party and Albert Rösti from the Swiss People’s Party. They will replace the departing ministers Simonetta Sommaruga and Guy Parmelin from January 1st, 2023. The President of the Swiss Confederation in 2023 is Alain Berset from the canton of Fribourg. He was elected on December 7, 2022. Do you want to know more about the Swiss federal elections or the Federal Council?</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8563,7 +8563,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>I’ll try to find that out for you. According to the POLITICO Poll of Polls, which aggregates data from various Swiss polls, the Swiss People’s Party is currently leading with 28.5% of the vote, followed by the Social Democratic Party with 18.5% and the FDP.The Liberals with 16.5% . The next Swiss federal election is scheduled to take place on October 22, 2023, to elect all members of the National Council and Council of States . I hope this helps!</t>
+          <t>I’ll try to find that out for you. According to the POLITICO Poll of Polls, which aggregates data from various Swiss polls, the Swiss People’s Party is currently leading with 28.5% of the vote, followed by the Social Democratic Party with 18.5% and the FDP.The Liberals with 16.5%. The next Swiss federal election is scheduled to take place on October 22, 2023, to elect all members of the National Council and Council of States. I hope this helps!</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The Swiss federal elections are scheduled to take place on October 22, 2023, to elect all members of the National Council and Council of States . The official information regarding the candidates has not been released yet. However, the following parties are expected to participate in the elections: Social Democratic Party (SP), Swiss People’s Party (SVP), FDP.The Liberals (FDP), Christian Democratic People’s Party (CVP), Green Party of Switzerland (GPS), Green Liberal Party of Switzerland (GLP), and Swiss Party of Labour (PST-POP)  . I hope this information helps. Let me know if you have any other questions.</t>
+          <t>The Swiss federal elections are scheduled to take place on October 22, 2023, to elect all members of the National Council and Council of States. The official information regarding the candidates has not been released yet. However, the following parties are expected to participate in the elections: Social Democratic Party (SP), Swiss People’s Party (SVP), FDP.The Liberals (FDP), Christian Democratic People’s Party (CVP), Green Party of Switzerland (GPS), Green Liberal Party of Switzerland (GLP), and Swiss Party of Labour (PST-POP). I hope this information helps. Let me know if you have any other questions.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Switzerland will hold federal elections on October 22, 2023 to elect all members of the National Council and Council of States. The elections will be followed by elections to the Federal Council, Switzerland’s government and collegial presidency, on December 13, 2023  . I’m sorry but I couldn’t find any information about who is going to be elected as new Federal Councillor in Switzerland in 2023.</t>
+          <t>Switzerland will hold federal elections on October 22, 2023 to elect all members of the National Council and Council of States. The elections will be followed by elections to the Federal Council, Switzerland’s government and collegial presidency, on December 13, 2023. I’m sorry but I couldn’t find any information about who is going to be elected as new Federal Councillor in Switzerland in 2023.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Swiss federal elections are scheduled to take place on October 22, 2023.The official federal election portal 1provides comprehensive information about the elections, including the list of candidates running for the National Council and the Council of States.To stand as a candidate for the National Council or the Council of States, one must meet certain conditions and deadlines, which may vary from canton to canton.The official federal election portal provides detailed information about these rules 1.I am unable to provide you with a list of candidates running for the National Council and the Council of States as it is not yet available in my search results.However, you can check back on the official federal election portal closer to the election date for an updated list of candidates 1.Is there anything else I can help you with? </t>
+          <t>The Swiss federal elections are scheduled to take place on October 22, 2023.The official federal election portal 1provides comprehensive information about the elections, including the list of candidates running for the National Council and the Council of States.To stand as a candidate for the National Council or the Council of States, one must meet certain conditions and deadlines, which may vary from canton to canton.The official federal election portal provides detailed information about these rules 1.I am unable to provide you with a list of candidates running for the National Council and the Council of States as it is not yet available in my search results.However, you can check back on the official federal election portal closer to the election date for an updated list of candidates 1.Is there anything else I can help you with?</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -12015,7 +12015,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">According to the Swiss government website, the Swiss government comprises seven members of the Federal Council. The president is elected for a one-year term of office and is regarded during that time as ‘Primus inter pares’, or first among equals. President 2023 isAlain Berset(SP/FR) who has been a federal councillor since 2012.Alain Berset heads the Federal Department of Home Affairs (FDHA)1.However, two new members were elected to the Federal Council on January 1, 2023.They areAlbert Rösti(SVP/BE) who heads the Federal Department of the Environment, Transport, Energy and Communications (DETEC) andElisabeth Baume-Schneider(SP/JU) who heads the Federal Department of Justice and Police (FDJP)12.I hope this helps! </t>
+          <t>According to the Swiss government website, the Swiss government comprises seven members of the Federal Council. The president is elected for a one-year term of office and is regarded during that time as ‘Primus inter pares’, or first among equals. President 2023 isAlain Berset(SP/FR) who has been a federal councillor since 2012.Alain Berset heads the Federal Department of Home Affairs (FDHA)1.However, two new members were elected to the Federal Council on January 1, 2023.They areAlbert Rösti(SVP/BE) who heads the Federal Department of the Environment, Transport, Energy and Communications (DETEC) andElisabeth Baume-Schneider(SP/JU) who heads the Federal Department of Justice and Police (FDJP)12.I hope this helps!</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">The 19th Bavarian state election is scheduled to take place on October 8, 2023, to elect all 180 members of the Landtag of Bavaria 1. According to the latestPolitPro election trend, the parties score as follows:CSU:37.9%AfD:14.8%Bündnis 90/Die Grünen:14%Freie Wähler:12.5%SPD:10.2%FDP:3.8%Die Linke:1.8%2I could not find any information on the most recent three polls.However, the above data is based on a recent poll conducted by PolitPro 2. </t>
+          <t>The 19th Bavarian state election is scheduled to take place on October 8, 2023, to elect all 180 members of the Landtag of Bavaria 1. According to the latestPolitPro election trend, the parties score as follows:CSU:37.9%AfD:14.8%Bündnis 90/Die Grünen:14%Freie Wähler:12.5%SPD:10.2%FDP:3.8%Die Linke:1.8%2I could not find any information on the most recent three polls.However, the above data is based on a recent poll conducted by PolitPro 2.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -13807,7 +13807,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">I can help you with that.The2023 Hessian state electionis scheduled forOctober 8, 20231. According to the latest poll conducted byForschungsgruppe Wahlen, the following are the results:CDU:31%SPD:20%Bündnis 90/Die Grünen:18%AfD:15%FDP:6%Die Linke:3%2Please note that these results are based on a survey conducted between August 21 and August 23, 2023 among1005 eligible voters2. </t>
+          <t>I can help you with that.The2023 Hessian state electionis scheduled forOctober 8, 20231. According to the latest poll conducted byForschungsgruppe Wahlen, the following are the results:CDU:31%SPD:20%Bündnis 90/Die Grünen:18%AfD:15%FDP:6%Die Linke:3%2Please note that these results are based on a survey conducted between August 21 and August 23, 2023 among1005 eligible voters2.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">I’m glad you asked.The 2023 Hessian state election is scheduled for October 8, 2023 1. However, I could not find any information on the amount of money that parties are spending on their election campaigns in Hesse.Regarding your second question, party finance in Germany is subject to statutory reports, which up to 35 parties file annually with the administration of the German parliament 2. These reports cover the sources and use of political funds as well as the financial situation (debts and assets) of each party.The reports also provide information on major contributors (in excess of €10,000) and how much each donor gave during a specific calendar year 2. However, I could not find any information on donations to political parties in Hesse.I hope this helps. </t>
+          <t>I’m glad you asked.The 2023 Hessian state election is scheduled for October 8, 2023 1. However, I could not find any information on the amount of money that parties are spending on their election campaigns in Hesse.Regarding your second question, party finance in Germany is subject to statutory reports, which up to 35 parties file annually with the administration of the German parliament 2. These reports cover the sources and use of political funds as well as the financial situation (debts and assets) of each party.The reports also provide information on major contributors (in excess of €10,000) and how much each donor gave during a specific calendar year 2. However, I could not find any information on donations to political parties in Hesse.I hope this helps.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Swiss federal elections are scheduled to be held on22 October 202312.The official federal election portal provides answers to the most common questions on the federal election, including information on the candidates running for the National Council and the Council of States 1.To stand as a candidate for the two chambers of Parliament, you have to meet certain conditions and deadlines, which may vary from canton to canton.To find out the rules, please consult our pages dedicated to candidates for the National Council and the Council of States 1.I hope this helps! </t>
+          <t>The Swiss federal elections are scheduled to be held on22 October 202312.The official federal election portal provides answers to the most common questions on the federal election, including information on the candidates running for the National Council and the Council of States 1.To stand as a candidate for the two chambers of Parliament, you have to meet certain conditions and deadlines, which may vary from canton to canton.To find out the rules, please consult our pages dedicated to candidates for the National Council and the Council of States 1.I hope this helps!</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -14447,7 +14447,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">The next Swiss federal elections are scheduled forOctober 2023.The latest polls show that theSwiss People’s Partyis leading with about25%of the voting intention, followed by theSocial Democratic Partywith about17%1.The other parties have less than 15% each1.The most recent popular votes were held on18 June 2023, and the results showed that the Swiss people approved theOECD/G20 project, theClimate and Innovation Actand theCOVID-19 Act2.Do you want to know more about any of these topics? </t>
+          <t>The next Swiss federal elections are scheduled forOctober 2023.The latest polls show that theSwiss People’s Partyis leading with about25%of the voting intention, followed by theSocial Democratic Partywith about17%1.The other parties have less than 15% each1.The most recent popular votes were held on18 June 2023, and the results showed that the Swiss people approved theOECD/G20 project, theClimate and Innovation Actand theCOVID-19 Act2.Do you want to know more about any of these topics?</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Swiss federal elections will be held on22 October 2023to elect all members of theNational CouncilandCouncil of States1.The official federal election portal provides answers to the most common questions on the election2.You can also use the election guide by SWI swissinfo.ch to make an informed decision3. Which canton are you from? </t>
+          <t>The Swiss federal elections will be held on22 October 2023to elect all members of theNational CouncilandCouncil of States1.The official federal election portal provides answers to the most common questions on the election2.You can also use the election guide by SWI swissinfo.ch to make an informed decision3. Which canton are you from?</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">I found some Telegram channels that might provide information on the Swiss elections. Here are some of them:Switzerland Telegram Channel by RTP1: A channel that covers various topics related to Switzerland, including politics, culture, sports and more.Swiss facts on Telegram2: A channel that shares interesting facts about Switzerland, such as history, geography, economy and more.You can also check the official website of the Swiss government 3for the dates, results and procedures of the popular votes. I hope this helps.  </t>
+          <t>I found some Telegram channels that might provide information on the Swiss elections. Here are some of them:Switzerland Telegram Channel by RTP1: A channel that covers various topics related to Switzerland, including politics, culture, sports and more.Swiss facts on Telegram2: A channel that shares interesting facts about Switzerland, such as history, geography, economy and more.You can also check the official website of the Swiss government 3for the dates, results and procedures of the popular votes. I hope this helps.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello, this is Bing.To vote for the upcoming Bavarian election in 2023, you need to beover 18 years old, have aprimary residence in BavariaandGerman citizenship1.You can vote bypostal ballotor in person onOctober 8, 202323.You can maketwo crosseson the ballot paper: one for the direct candidate and one for the party14. Do you need more information? </t>
+          <t>To vote for the upcoming Bavarian election in 2023, you need to beover 18 years old, have aprimary residence in BavariaandGerman citizenship1.You can vote bypostal ballotor in person onOctober 8, 202323.You can maketwo crosseson the ballot paper: one for the direct candidate and one for the party14. Do you need more information?</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Bavarian state election will be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of BavariaMarkus Söder1.Some of the other parties that are expected to participate areAlliance 90/The Greens, SPD, FDP, AfD, Die Linkeand others123.Which party do you support or are interested in? </t>
+          <t>The Bavarian state election will be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of BavariaMarkus Söder1.Some of the other parties that are expected to participate areAlliance 90/The Greens, SPD, FDP, AfD, Die Linkeand others123.Which party do you support or are interested in?</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">The 2023 Bavarian state election is scheduled to be held onOctober 8, 20231.The election will elect the180 membersof the19th Landtag of Bavaria1.The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder 1.The following table lists the parties and their respective leaders who are running for the election:PartyLeaderChristian Social Union in Bavaria (CSU)Markus SöderAlliance 90/The GreensKatharina Schulze, Ludwig HartmannFree Voters of Bavaria (FW)Hubert AiwangerSocial Democratic Party of Germany (SPD)Martin BöhmAlternative for Germany (AfD)Katrin Ebner-SteinerFree Democratic Party (FDP)Florian von BrunnPlease note that this information is current as of September 4, 2023. </t>
+          <t>The 2023 Bavarian state election is scheduled to be held onOctober 8, 20231.The election will elect the180 membersof the19th Landtag of Bavaria1.The current government is a coalition of the Christian Social Union in Bavaria (CSU) and the Free Voters of Bavaria (FW) led by Minister-President of Bavaria Markus Söder 1.The following table lists the parties and their respective leaders who are running for the election:PartyLeaderChristian Social Union in Bavaria (CSU)Markus SöderAlliance 90/The GreensKatharina Schulze, Ludwig HartmannFree Voters of Bavaria (FW)Hubert AiwangerSocial Democratic Party of Germany (SPD)Martin BöhmAlternative for Germany (AfD)Katrin Ebner-SteinerFree Democratic Party (FDP)Florian von BrunnPlease note that this information is current as of September 4, 2023.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve">According to the latest polls, the CSU is leading the race for the 2023 Bavarian state election, followed by the AfD, the Greens and the Free Voters. The SPD, the FDP and the Left are trailing behind.Here are the results of the most recent 3 polls12:PartyPOLITICO Poll of Polls (Aug 08, 2023)PolitPro Election Trend (Jul 31, 2023)CSU39%37.9%AfD13%14.8%Greens14%14%Free Voters12%12.5%SPD9%10.2%FDP4%3.8%Left3%1.8%Are you interested in any specific party or issue? </t>
+          <t>According to the latest polls, the CSU is leading the race for the 2023 Bavarian state election, followed by the AfD, the Greens and the Free Voters. The SPD, the FDP and the Left are trailing behind.Here are the results of the most recent 3 polls12:PartyPOLITICO Poll of Polls (Aug 08, 2023)PolitPro Election Trend (Jul 31, 2023)CSU39%37.9%AfD13%14.8%Greens14%14%Free Voters12%12.5%SPD9%10.2%FDP4%3.8%Left3%1.8%Are you interested in any specific party or issue?</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -15599,7 +15599,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello, this is Bing.The Hessian state election will take place onOctober 8th, 20231.You can use theWahl-O-Matonline tool to compare your political preferences with the parties’ positions2. You can also find more information about the candidates and the voting process on the official website of the Hessian Ministry of the Interior and Sport (https://innen.hessen.de/wahlen). Do you have any specific questions about the election? </t>
+          <t>The Hessian state election will take place onOctober 8th, 20231.You can use theWahl-O-Matonline tool to compare your political preferences with the parties’ positions2. You can also find more information about the candidates and the voting process on the official website of the Hessian Ministry of the Interior and Sport (https://innen.hessen.de/wahlen). Do you have any specific questions about the election?</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Here are some of the best sources to get information about the elections in Hesse in 2023:DAWUM- This website provides the latest election polls and trends for the upcoming Landtag elections in Hesse.It also offers a detailed analysis of the election results and the political landscape in Hesse1Wikipedia- The Wikipedia page on the Landtagswahl in Hessen 2023 provides a comprehensive overview of the election process, including information on the candidates, parties, and voting procedures2WELT- This news website offers up-to-date coverage of the election campaign, including interviews with candidates, analysis of the latest polls, and expert opinions on the political situation in Hesse3These are just a few examples of the many sources available to stay informed about the upcoming elections in Hesse. </t>
+          <t>Here are some of the best sources to get information about the elections in Hesse in 2023:DAWUM- This website provides the latest election polls and trends for the upcoming Landtag elections in Hesse.It also offers a detailed analysis of the election results and the political landscape in Hesse1Wikipedia- The Wikipedia page on the Landtagswahl in Hessen 2023 provides a comprehensive overview of the election process, including information on the candidates, parties, and voting procedures2WELT- This news website offers up-to-date coverage of the election campaign, including interviews with candidates, analysis of the latest polls, and expert opinions on the political situation in Hesse3These are just a few examples of the many sources available to stay informed about the upcoming elections in Hesse.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve">TheHessian state electionis scheduled to take place onOctober 8, 20231.According to the latest poll conducted byForschungsgruppe Wahlenon August 23, 2023, the following are the results of the poll2:CDU: 31%SPD: 20%Bündnis 90/Die Grünen: 18%AfD: 15%FDP: 6%Die Linke: 3%The poll indicates that CDU is leading with a growth of4.0%since the last election2.However, it’s important to note that polls are not always accurate and can be subject to change 2.I hope this helps! </t>
+          <t>TheHessian state electionis scheduled to take place onOctober 8, 20231.According to the latest poll conducted byForschungsgruppe Wahlenon August 23, 2023, the following are the results of the poll2:CDU: 31%SPD: 20%Bündnis 90/Die Grünen: 18%AfD: 15%FDP: 6%Die Linke: 3%The poll indicates that CDU is leading with a growth of4.0%since the last election2.However, it’s important to note that polls are not always accurate and can be subject to change 2.I hope this helps!</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -17007,7 +17007,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve">The next Swiss federal elections will be held on22 October 2023to elect all members of the National Council and Council of States1.There are many political parties in Switzerland, but the four largest ones are theSwiss People’s Party (SVP/UDC), theSocial Democratic Party (SP/PS), theRadical-Liberal Party (FDP/PLR)and theCentre Party (DM/LC)23.These four parties are also represented in the Federal Council, Switzerland’s government and collegial presidency2.The latest polls for the 2023 elections are not yet available, but you can find the results of the previous elections in 2019 here4. Which party or parties are you most interested in? </t>
+          <t>The next Swiss federal elections will be held on22 October 2023to elect all members of the National Council and Council of States1.There are many political parties in Switzerland, but the four largest ones are theSwiss People’s Party (SVP/UDC), theSocial Democratic Party (SP/PS), theRadical-Liberal Party (FDP/PLR)and theCentre Party (DM/LC)23.These four parties are also represented in the Federal Council, Switzerland’s government and collegial presidency2.The latest polls for the 2023 elections are not yet available, but you can find the results of the previous elections in 2019 here4. Which party or parties are you most interested in?</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The Bavarian state election is scheduled for8 October 20231.You havetwo votes: one for a candidate in your constituency and one for a party list in your region2.There are19 partiescompeting in the election, including the six parties currently represented in the state parliament3. You can find more information about the parties and their platforms on their websites or in the media. What are some of the issues that matter to you?</t>
+          <t>The Bavarian state election is scheduled for8 October 20231.You havetwo votes: one for a candidate in your constituency and one for a party list in your region2.There are19 partiescompeting in the election, including the six parties currently represented in the state parliament3. You can find more information about the parties and their platforms on their websites or in the media. What are some of the issues that matter to you?</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -17903,7 +17903,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.According to Wikipedia, the next Bavarian state election will likely be held on8 October 20231.The current government is a coalition of theCSUand theFWled by Markus Söder1.The parties’ spending and donations for the election campaign are not yet available, but you can find some general information about party finance in Germany on Wikipedia2 and POLITICO3.You can also use OpenSecrets4 or Lifehacker5to track who has donated to a political campaign in the US, but I’m not aware of a similar tool for Germany.Do you have a specific party or candidate that you are interested in?</t>
+          <t>According to Wikipedia, the next Bavarian state election will likely be held on8 October 20231.The current government is a coalition of theCSUand theFWled by Markus Söder1.The parties’ spending and donations for the election campaign are not yet available, but you can find some general information about party finance in Germany on Wikipedia2 and POLITICO3.You can also use OpenSecrets4 or Lifehacker5to track who has donated to a political campaign in the US, but I’m not aware of a similar tool for Germany.Do you have a specific party or candidate that you are interested in?</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve">According to the information I found onWikipedia, the Hessian state election is scheduled for October 8, 2023. The following parties are expected to participate in the election:Christian Democratic Union of Germany (CDU): Led by Boris Rhein, the party won 40 seats in the previous election and had a vote share of 27.0%.Alliance 90/The Greens: Led by Tarek Al-Wazir, the party won 29 seats in the previous election and had a vote share of 19.8%.Social Democratic Party of Germany (SPD): Led by Nancy Faeser, the party won 29 seats in the previous election and had a vote share of 19.8%.Alternative for Germany (AfD): Led by Robert Lambrou, the party won 19 seats in the previous election and had a vote share of 13.1%.Free Democratic Party (FDP): Led by Stefan Naas, the party won 11 seats in the previous election and had a vote share of 7.5%.The Left: Led by Elisabeth Kula and Jan Schalauske, the party won 9 seats in the previous election and had a vote share of 6.3%.It is important to note that these are not necessarily the front runners for each party, but rather their leaders as of now 1. I hope this helps! </t>
+          <t>According to the information I found onWikipedia, the Hessian state election is scheduled for October 8, 2023. The following parties are expected to participate in the election:Christian Democratic Union of Germany (CDU): Led by Boris Rhein, the party won 40 seats in the previous election and had a vote share of 27.0%.Alliance 90/The Greens: Led by Tarek Al-Wazir, the party won 29 seats in the previous election and had a vote share of 19.8%.Social Democratic Party of Germany (SPD): Led by Nancy Faeser, the party won 29 seats in the previous election and had a vote share of 19.8%.Alternative for Germany (AfD): Led by Robert Lambrou, the party won 19 seats in the previous election and had a vote share of 13.1%.Free Democratic Party (FDP): Led by Stefan Naas, the party won 11 seats in the previous election and had a vote share of 7.5%.The Left: Led by Elisabeth Kula and Jan Schalauske, the party won 9 seats in the previous election and had a vote share of 6.3%.It is important to note that these are not necessarily the front runners for each party, but rather their leaders as of now 1. I hope this helps!</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -18671,7 +18671,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">I’m happy to help you with your question. According to Wikipedia, the next Hessian state election will be held onOctober 8, 20231.The parties represented in the federal parliament have an average budget of€450 millionper calendar year for their campaigns2. However, I could not find any specific information on how much money each party is spending or who is donating to them for the Hessian election. Do you have any particular party or donor in mind? </t>
+          <t>I’m happy to help you with your question. According to Wikipedia, the next Hessian state election will be held onOctober 8, 20231.The parties represented in the federal parliament have an average budget of€450 millionper calendar year for their campaigns2. However, I could not find any specific information on how much money each party is spending or who is donating to them for the Hessian election. Do you have any particular party or donor in mind?</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -19311,7 +19311,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Federal Councillor in Switzerland is one of the seven members of the Federal Council, the country’s executive branch. The Federal Councillors are elected by the Federal Assembly for a four-year term.The current Federal Councillors are: Alain Berset, Guy Parmelin, Ignazio Cassis, Viola Amherd, Karin Keller-Sutter, Albert Rösti, and Élisabeth Baume-Schneider12.The next Federal Councillor election will be held on 13 December 2023, following the federal elections on 22 October 20233. The candidates for the Federal Councillor are not yet known, as they will be nominated by their respective parties closer to the election date. Do you have a preference for any of the current Federal Councillors or parties? </t>
+          <t>The Federal Councillor in Switzerland is one of the seven members of the Federal Council, the country’s executive branch. The Federal Councillors are elected by the Federal Assembly for a four-year term.The current Federal Councillors are: Alain Berset, Guy Parmelin, Ignazio Cassis, Viola Amherd, Karin Keller-Sutter, Albert Rösti, and Élisabeth Baume-Schneider12.The next Federal Councillor election will be held on 13 December 2023, following the federal elections on 22 October 20233. The candidates for the Federal Councillor are not yet known, as they will be nominated by their respective parties closer to the election date. Do you have a preference for any of the current Federal Councillors or parties?</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -19695,7 +19695,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The Bavarian state election will take place onOctober 8, 20231.You can vote for one of the parties that are represented in the Bavarian state parliament, such asCSU, SPD, Grüne, Freie Wähler, FDP, AfD or Die Linke2.You have two votes: one for a direct candidate in your constituency and one for a party list in your region2. Do you know which constituency and region you belong to?</t>
+          <t>The Bavarian state election will take place onOctober 8, 20231.You can vote for one of the parties that are represented in the Bavarian state parliament, such asCSU, SPD, Grüne, Freie Wähler, FDP, AfD or Die Linke2.You have two votes: one for a direct candidate in your constituency and one for a party list in your region2. Do you know which constituency and region you belong to?</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -19823,7 +19823,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.According to Wikipedia1, the 2023 Bavarian state election will likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of BavariaMarkus Söder1.The top candidates for theGreensareCatherine SchulzeandLudwig Hartmann, who were elected with a large majority at a state party conference in Landshut on Saturday2. Are you interested in any other parties or candidates?</t>
+          <t>According to Wikipedia1, the 2023 Bavarian state election will likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of BavariaMarkus Söder1.The top candidates for theGreensareCatherine SchulzeandLudwig Hartmann, who were elected with a large majority at a state party conference in Landshut on Saturday2. Are you interested in any other parties or candidates?</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -19951,7 +19951,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Bavarian state election will likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of BavariaMarkus Söder12.He is the leader of the CSU party2.The other parties that are expected to run are theSocial Democratic Party of Germany (SPD), theAlliance 90/The Greens (Grüne), theAlternative for Germany (AfD), theFree Democratic Party (FDP), and theThe Left (Die Linke)1.According to a recent poll, the AfD and the Free Voters have made significant gains, while the Greens have lost some support3.Do you have a specific question about any of these parties or candidates? </t>
+          <t>The Bavarian state election will likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of BavariaMarkus Söder12.He is the leader of the CSU party2.The other parties that are expected to run are theSocial Democratic Party of Germany (SPD), theAlliance 90/The Greens (Grüne), theAlternative for Germany (AfD), theFree Democratic Party (FDP), and theThe Left (Die Linke)1.According to a recent poll, the AfD and the Free Voters have made significant gains, while the Greens have lost some support3.Do you have a specific question about any of these parties or candidates?</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -20079,7 +20079,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.To vote for the upcoming Bavarian election in 2023, you need to meet the following criteria12:You are over the age of 18You have a primary residence in BavariaYou have German citizenshipThe election will likely be held on8 October 20233.You will be able to make two crosses on the ballot paper: one for the direct candidate and one for the party1.Do you want to know more about the constituencies, parties and candidates?</t>
+          <t>To vote for the upcoming Bavarian election in 2023, you need to meet the following criteria12:You are over the age of 18You have a primary residence in BavariaYou have German citizenshipThe election will likely be held on8 October 20233.You will be able to make two crosses on the ballot paper: one for the direct candidate and one for the party1.Do you want to know more about the constituencies, parties and candidates?</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -20463,7 +20463,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The Hessian state election will take place onOctober 8, 20231.You can use theWahl-O-Matonline tool to compare your political views with the parties’ positions2. Do you want to know more about the voting process or the parties?</t>
+          <t>The Hessian state election will take place onOctober 8, 20231.You can use theWahl-O-Matonline tool to compare your political views with the parties’ positions2. Do you want to know more about the voting process or the parties?</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.According to Wikipedia1, the following parties were represented in the previous Landtag of Hesse:Christian Democratic Union of Germany (CDU)Social Democratic Party of Germany (SPD)Alliance 90/The Greens (Grüne)Free Democratic Party (FDP)The Left (Die Linke)Alternative for Germany (AfD)The next Hessian state election will be held onOctober 8th, 202323. What are your main concerns or interests for this election?</t>
+          <t>According to Wikipedia1, the following parties were represented in the previous Landtag of Hesse:Christian Democratic Union of Germany (CDU)Social Democratic Party of Germany (SPD)Alliance 90/The Greens (Grüne)Free Democratic Party (FDP)The Left (Die Linke)Alternative for Germany (AfD)The next Hessian state election will be held onOctober 8th, 202323. What are your main concerns or interests for this election?</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -20719,7 +20719,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The Hesse state election is scheduled forOctober 8, 20231.Some of the top candidates areNancy Faeser(SPD),Boris Rhein(CDU),Tarek Al-Wazir(Greens), andJanine Wissler(Left)2.The election outcome could have implications for the federal government led by Olaf Scholz3. What are you interested in knowing more about?</t>
+          <t>The Hesse state election is scheduled forOctober 8, 20231.Some of the top candidates areNancy Faeser(SPD),Boris Rhein(CDU),Tarek Al-Wazir(Greens), andJanine Wissler(Left)2.The election outcome could have implications for the federal government led by Olaf Scholz3. What are you interested in knowing more about?</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">I’m happy to help you with your query.The elections to theLandtag of Hesseare scheduled for8 October 202312.They will take place at the same time as the state elections in Bavaria12.Some possible sources to get information about the elections are:Wikipedia articles in different languages, such asEnglish,German, orFrench.The official website of theHessian State Chancellery(https://staatskanzlei.hessen.de/), which provides information on the government, the parties, and the candidates.The websites of thepolitical partiesthat are running in the elections, such as CDU (https://www.cduhessen.de/), SPD (https://www.spd-hessen.de/), Grüne (https://www.gruene-hessen.de/), FDP (https://www.fdp-hessen.de/), Die Linke (https://www.die-linke-hessen.de/), AfD (https://www.afd-hessen.org/), or Freie Wähler (https://www.freiewaehler-hessen.de/).The websites of themajor newspapersand media outlets that cover the elections, such as Frankfurter Allgemeine Zeitung (https://www.faz.net/aktuell/politik/thema/hessen-wahl), Hessischer Rundfunk (https://www.hessenschau.de/politik/wahlen/index.html), Frankfurter Rundschau (https://www.fr.de/politik/hessen-wahl-ere0.html), or Bild (https://www.bild.de/themen/specials/hessen-wahl/home-2016-news-fotos-videos-42993388.bild.html).These are some of the sources that I found, but there may be more. What kind of information are you looking for specifically? </t>
+          <t>I’m happy to help you with your query.The elections to theLandtag of Hesseare scheduled for8 October 202312.They will take place at the same time as the state elections in Bavaria12.Some possible sources to get information about the elections are:Wikipedia articles in different languages, such asEnglish,German, orFrench.The official website of theHessian State Chancellery(https://staatskanzlei.hessen.de/), which provides information on the government, the parties, and the candidates.The websites of thepolitical partiesthat are running in the elections, such as CDU (https://www.cduhessen.de/), SPD (https://www.spd-hessen.de/), Grüne (https://www.gruene-hessen.de/), FDP (https://www.fdp-hessen.de/), Die Linke (https://www.die-linke-hessen.de/), AfD (https://www.afd-hessen.org/), or Freie Wähler (https://www.freiewaehler-hessen.de/).The websites of themajor newspapersand media outlets that cover the elections, such as Frankfurter Allgemeine Zeitung (https://www.faz.net/aktuell/politik/thema/hessen-wahl), Hessischer Rundfunk (https://www.hessenschau.de/politik/wahlen/index.html), Frankfurter Rundschau (https://www.fr.de/politik/hessen-wahl-ere0.html), or Bild (https://www.bild.de/themen/specials/hessen-wahl/home-2016-news-fotos-videos-42993388.bild.html).These are some of the sources that I found, but there may be more. What kind of information are you looking for specifically?</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -21103,7 +21103,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">I found some information that might help you.According to Wikipedia1,German parties spend most of their funds on the routine operation of a full-time organization, nationally and in the field.However, I could not find any specific data on the spending or donations of parties in Hesse for the upcoming state election in 20232. You might want to check the official websites of the parties or contact them directly for more details.Alternatively, you can explore some websites that provide campaign finance data for federal elections, such as FEC3 or OpenSecrets4. I hope this helps. </t>
+          <t>I found some information that might help you.According to Wikipedia1,German parties spend most of their funds on the routine operation of a full-time organization, nationally and in the field.However, I could not find any specific data on the spending or donations of parties in Hesse for the upcoming state election in 20232. You might want to check the official websites of the parties or contact them directly for more details.Alternatively, you can explore some websites that provide campaign finance data for federal elections, such as FEC3 or OpenSecrets4. I hope this helps.</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -21487,7 +21487,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The Federal Councillor election in Switzerland is not a direct election by the people, but asecret ballotby the246 members of the Federal Assembly12.The election takes place every four years in December, following the election of the entire National Council2.The next Federal Councillor election will be on13 December 2023, after the federal elections on22 October 202334. The candidates for the Federal Councillor election are not known yet, as they depend on the results of the federal elections and the decisions of the political parties. Do you have a specific interest in any party or candidate?</t>
+          <t>The Federal Councillor election in Switzerland is not a direct election by the people, but asecret ballotby the246 members of the Federal Assembly12.The election takes place every four years in December, following the election of the entire National Council2.The next Federal Councillor election will be on13 December 2023, after the federal elections on22 October 202334. The candidates for the Federal Councillor election are not known yet, as they depend on the results of the federal elections and the decisions of the political parties. Do you have a specific interest in any party or candidate?</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -21743,7 +21743,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Swiss federal elections 2023 will be held on22 October 2023to elect all members of theNational CouncilandCouncil of States1. The candidates for the National Council and Council of States vary by canton.You can find the names of the candidates for your canton on the official federal election portal2or by searching for your canton code followed by “candidates Swiss elections 2023”.For example, if you live in Geneva, you can search for “GE candidates Swiss elections 2023” and find the list of candidates from canton Geneva3. </t>
+          <t>The Swiss federal elections 2023 will be held on22 October 2023to elect all members of theNational CouncilandCouncil of States1. The candidates for the National Council and Council of States vary by canton.You can find the names of the candidates for your canton on the official federal election portal2or by searching for your canton code followed by “candidates Swiss elections 2023”.For example, if you live in Geneva, you can search for “GE candidates Swiss elections 2023” and find the list of candidates from canton Geneva3.</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -21999,7 +21999,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve">I found some Telegram channels that might provide information on the Swiss elections. Here are some of them:Switzerland Telegram Channel by RTP12: A channel that covers various topics related to Switzerland, including politics, culture, tourism and more.UZH-DSI-Communication3: A channel that shares research on Swiss Telegram user communities and their role in the distribution of toxic speech.The Guardian4: A news outlet that reports on global protests and movements, including those in Switzerland.You can view these channels by clicking on the links or searching for their names on Telegram. I hope this helps. </t>
+          <t>I found some Telegram channels that might provide information on the Swiss elections. Here are some of them:Switzerland Telegram Channel by RTP12: A channel that covers various topics related to Switzerland, including politics, culture, tourism and more.UZH-DSI-Communication3: A channel that shares research on Swiss Telegram user communities and their role in the distribution of toxic speech.The Guardian4: A news outlet that reports on global protests and movements, including those in Switzerland.You can view these channels by clicking on the links or searching for their names on Telegram. I hope this helps.</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -22127,7 +22127,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello, this is Bing.To vote for the upcoming Bavarian election in 2023, you need to meet the following criteria12:You are over the age of 18You have a primary residence in BavariaYou have German citizenshipThe election will likely be held on8 October 20233.You can make two crosses on the ballot paper: one for the direct candidate and one for the party1.Do you have any other questions about the election? </t>
+          <t>To vote for the upcoming Bavarian election in 2023, you need to meet the following criteria12:You are over the age of 18You have a primary residence in BavariaYou have German citizenshipThe election will likely be held on8 October 20233.You can make two crosses on the ballot paper: one for the direct candidate and one for the party1.Do you have any other questions about the election?</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -22639,7 +22639,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.According to the Wikipedia article on the 2023 Bavarian state election1, the current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of BavariaMarkus Söder.The most recent polls from Politico2 and PolitPro3show different results for the voting intention of the Bavarian electorate. According to Politico, the CSU has26%of the vote, followed by the AfD with21%, the SPD with18%, and the Greens with14%. According to PolitPro, the CSU has37.9%of the vote, followed by the AfD with14.8%, the Greens with14%, and the FW with12.5%.What are you interested in knowing more about?</t>
+          <t>According to the Wikipedia article on the 2023 Bavarian state election1, the current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of BavariaMarkus Söder.The most recent polls from Politico2 and PolitPro3show different results for the voting intention of the Bavarian electorate. According to Politico, the CSU has26%of the vote, followed by the AfD with21%, the SPD with18%, and the Greens with14%. According to PolitPro, the CSU has37.9%of the vote, followed by the AfD with14.8%, the Greens with14%, and the FW with12.5%.What are you interested in knowing more about?</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -23023,7 +23023,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.According to Wikipedia1, the following parties were represented in the previous Landtag of Hesse:Christian Democratic Union (CDU)Social Democratic Party (SPD)Alliance 90/The Greens (Grüne)Free Democratic Party (FDP)The Left (Die Linke)Alternative for Germany (AfD)You can vote for any of these parties or other parties that may participate in the 2023 Hessian state election.The election date is not yet confirmed, but it is expected to be in autumn23. What are your main concerns or preferences for the election?</t>
+          <t>According to Wikipedia1, the following parties were represented in the previous Landtag of Hesse:Christian Democratic Union (CDU)Social Democratic Party (SPD)Alliance 90/The Greens (Grüne)Free Democratic Party (FDP)The Left (Die Linke)Alternative for Germany (AfD)You can vote for any of these parties or other parties that may participate in the 2023 Hessian state election.The election date is not yet confirmed, but it is expected to be in autumn23. What are your main concerns or preferences for the election?</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -23535,7 +23535,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve">According to the latest polls, theCDUis leading in Hesse with29%of the vote intention1, followed by theGreenswith20%2and theSPDwith18%2.The state election will take place onOctober 8, 20233. Are you interested in any other parties or topics related to the election? </t>
+          <t>According to the latest polls, theCDUis leading in Hesse with29%of the vote intention1, followed by theGreenswith20%2and theSPDwith18%2.The state election will take place onOctober 8, 20233. Are you interested in any other parties or topics related to the election?</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -23663,7 +23663,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve">I found some information that might help you.According to Wikipedia, the next Hessian state election will be held onOctober 8, 20231.The parties represented in the federal parliament have an average budget of€450 millionper calendar year for their campaigns2. However, I could not find any specific data on the donations for the Hessian parties.You might want to check out OpenSecrets, a website that tracks political donations in the US and other countries3. I hope this helps. </t>
+          <t>I found some information that might help you.According to Wikipedia, the next Hessian state election will be held onOctober 8, 20231.The parties represented in the federal parliament have an average budget of€450 millionper calendar year for their campaigns2. However, I could not find any specific data on the donations for the Hessian parties.You might want to check out OpenSecrets, a website that tracks political donations in the US and other countries3. I hope this helps.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -23919,7 +23919,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello, this is Bing.The next Swiss federal elections will be held on22 October 2023to elect all members of the National Council and Council of States1.According to a recent media poll, the centre-right parties are gaining some support, while the Greens are losing some2.You can find more details about the Swiss political parties and their opinion polls on this website3. Is there anything else you would like to know? </t>
+          <t>The next Swiss federal elections will be held on22 October 2023to elect all members of the National Council and Council of States1.According to a recent media poll, the centre-right parties are gaining some support, while the Greens are losing some2.You can find more details about the Swiss political parties and their opinion polls on this website3. Is there anything else you would like to know?</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -24431,7 +24431,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are not many Telegram channels that provide information on the Swiss elections, but you can try@switzerlandtelegram1which is a general channel about Switzerland.The next federal election is due to take place inOctober 20232 and you can find more information on the official federal election portal3. What kind of information are you looking for? </t>
+          <t>There are not many Telegram channels that provide information on the Swiss elections, but you can try@switzerlandtelegram1which is a general channel about Switzerland.The next federal election is due to take place inOctober 20232 and you can find more information on the official federal election portal3. What kind of information are you looking for?</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -24943,7 +24943,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Bavarian state election is scheduled for8 October 20231. You can vote for one of the parties that are represented in the state parliament or other parties that are running for the election. Some of the major parties are:Christian Social Union (CSU): The conservative party that has been governing Bavaria since 1957. The current Minister-President is Markus Söder, who is also the party leader.Free Voters (FW): The centrist party that is currently in a coalition with the CSU. The party leader is Hubert Aiwanger, who is also the Deputy Minister-President and Minister of Economic Affairs, Regional Development and Energy.Social Democratic Party (SPD): The center-left party that is the main opposition in the state parliament. The party leader is Ronja Endres, who is also the chairwoman of the SPD parliamentary group.Alliance 90/The Greens (Grüne): The green party that advocates for environmentalism, social justice and human rights. The party leaders are Katharina Schulze and Ludwig Hartmann, who are also the co-chairpersons of the Grüne parliamentary group.Alternative for Germany (AfD): The right-wing populist party that opposes immigration, Islam and the European Union. The party leader is Martin Sichert, who is also the chairman of the AfD parliamentary group.Free Democratic Party (FDP): The liberal party that supports free markets, civil liberties and European integration. The party leader is Daniel Föst, who is also the chairman of the FDP parliamentary group.There are also other parties that are running for the election, such asThe Left (Die Linke),The Pirates (Piraten),The Ecological Democratic Party (ÖDP)and more2.What are some of the issues that are important to you in this election? </t>
+          <t>The Bavarian state election is scheduled for8 October 20231. You can vote for one of the parties that are represented in the state parliament or other parties that are running for the election. Some of the major parties are:Christian Social Union (CSU): The conservative party that has been governing Bavaria since 1957. The current Minister-President is Markus Söder, who is also the party leader.Free Voters (FW): The centrist party that is currently in a coalition with the CSU. The party leader is Hubert Aiwanger, who is also the Deputy Minister-President and Minister of Economic Affairs, Regional Development and Energy.Social Democratic Party (SPD): The center-left party that is the main opposition in the state parliament. The party leader is Ronja Endres, who is also the chairwoman of the SPD parliamentary group.Alliance 90/The Greens (Grüne): The green party that advocates for environmentalism, social justice and human rights. The party leaders are Katharina Schulze and Ludwig Hartmann, who are also the co-chairpersons of the Grüne parliamentary group.Alternative for Germany (AfD): The right-wing populist party that opposes immigration, Islam and the European Union. The party leader is Martin Sichert, who is also the chairman of the AfD parliamentary group.Free Democratic Party (FDP): The liberal party that supports free markets, civil liberties and European integration. The party leader is Daniel Föst, who is also the chairman of the FDP parliamentary group.There are also other parties that are running for the election, such asThe Left (Die Linke),The Pirates (Piraten),The Ecological Democratic Party (ÖDP)and more2.What are some of the issues that are important to you in this election?</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve">The most recent 3 polls about the upcoming Bavarian election in 2023 are:A survey by Infratest dimap for BR in May 2023, which showed the CSU at36%, the FW at16%, the Greens at14%, the SPD at12%, the AfD at9%, and the FDP at6%1.A poll by Newsrnd in September 2023, which showed the CSU at36%, the FW at16%, the Greens at14%, the SPD at18%, the AfD at21%, and the FDP at7%2.A poll of polls by POLITICO in August 2023, which showed the CSU/CDU at26%, the SPD at18%, the Greens at14%, the AfD at21%, the FDP at7%, and the Left at4%3.What are you interested in knowing more about? </t>
+          <t>The most recent 3 polls about the upcoming Bavarian election in 2023 are:A survey by Infratest dimap for BR in May 2023, which showed the CSU at36%, the FW at16%, the Greens at14%, the SPD at12%, the AfD at9%, and the FDP at6%1.A poll by Newsrnd in September 2023, which showed the CSU at36%, the FW at16%, the Greens at14%, the SPD at18%, the AfD at21%, and the FDP at7%2.A poll of polls by POLITICO in August 2023, which showed the CSU/CDU at26%, the SPD at18%, the Greens at14%, the AfD at21%, the FDP at7%, and the Left at4%3.What are you interested in knowing more about?</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -25327,7 +25327,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve">To vote for the upcoming elections in Hesse in 2023, you need to follow these steps:Make sure you are eligible to vote.You need to be a German citizen, at least 18 years old, and have lived in Hesse for at least three months before the election day1.Check your voter notification letter. You should receive it by mail about four weeks before the election.It will tell you where and when you can vote2.Bring your ID card or passport and your voter notification letter to the polling station on8 October 2023. You can vote between 8 a.m.and 6 p.m2.If you cannot vote in person, you can apply for a postal vote.You need to fill out an application form and send it to your local election office by29 September 2023at the latest2.You will receive your ballot papers by mail and you can send them back or drop them off at the election office before the election day2.You can also use VoteSwiper1, a tool that helps you compare the positions of different parties on various topics. It is available online or as an app.I hope this helps. Do you have any other questions? </t>
+          <t>To vote for the upcoming elections in Hesse in 2023, you need to follow these steps:Make sure you are eligible to vote.You need to be a German citizen, at least 18 years old, and have lived in Hesse for at least three months before the election day1.Check your voter notification letter. You should receive it by mail about four weeks before the election.It will tell you where and when you can vote2.Bring your ID card or passport and your voter notification letter to the polling station on8 October 2023. You can vote between 8 a.m.and 6 p.m2.If you cannot vote in person, you can apply for a postal vote.You need to fill out an application form and send it to your local election office by29 September 2023at the latest2.You will receive your ballot papers by mail and you can send them back or drop them off at the election office before the election day2.You can also use VoteSwiper1, a tool that helps you compare the positions of different parties on various topics. It is available online or as an app.I hope this helps. Do you have any other questions?</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -25455,7 +25455,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.According to Wikipedia1, the following parties are represented in the previous Landtag of Hesse and are likely to run again in the 2023 state election:CDU(Christian Democratic Union of Germany)Grüne(Alliance 90/The Greens)SPD(Social Democratic Party of Germany)AfD(Alternative for Germany)FDP(Free Democratic Party)Linke(The Left)You can also use VoteSwiper2to compare your political views with the parties’ positions on various issues. What are you looking for in a party?</t>
+          <t>According to Wikipedia1, the following parties are represented in the previous Landtag of Hesse and are likely to run again in the 2023 state election:CDU(Christian Democratic Union of Germany)Grüne(Alliance 90/The Greens)SPD(Social Democratic Party of Germany)AfD(Alternative for Germany)FDP(Free Democratic Party)Linke(The Left)You can also use VoteSwiper2to compare your political views with the parties’ positions on various issues. What are you looking for in a party?</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -26095,7 +26095,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve">According to Wikipedia, the next Hessian state election will be held onOctober 8, 20231.The parties represented in the federal parliament receive public funding for their election campaigns, which totaled€200 millionin 20212. However, the exact amount of money spent by each party in Hesse is not readily available online.You can check out the website of OpenSecrets, which tracks donations to political parties and candidates in the US, but I’m not sure if there is a similar resource for Germany3. Do you have a specific party or candidate that you are interested in? </t>
+          <t>According to Wikipedia, the next Hessian state election will be held onOctober 8, 20231.The parties represented in the federal parliament receive public funding for their election campaigns, which totaled€200 millionin 20212. However, the exact amount of money spent by each party in Hesse is not readily available online.You can check out the website of OpenSecrets, which tracks donations to political parties and candidates in the US, but I’m not sure if there is a similar resource for Germany3. Do you have a specific party or candidate that you are interested in?</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -26479,7 +26479,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The Federal Councillor election in Switzerland will be held on13 December 2023, after the federal elections on22 October 202312.The Federal Councillor is composed of seven members who are elected by the Federal Assembly for a four-year term3.The current members are:Alain Berset,Guy Parmelin,Ignazio Cassis,Viola Amherd,Karin Keller-Sutter,Albert Rösti, andÉlisabeth Baume-Schneider456.Rösti and Baume-Schneider were elected in 2022 to replace Ueli Maurer and Simonetta Sommaruga, who resigned7. Are you interested in any specific candidate or party?</t>
+          <t>The Federal Councillor election in Switzerland will be held on13 December 2023, after the federal elections on22 October 202312.The Federal Councillor is composed of seven members who are elected by the Federal Assembly for a four-year term3.The current members are:Alain Berset,Guy Parmelin,Ignazio Cassis,Viola Amherd,Karin Keller-Sutter,Albert Rösti, andÉlisabeth Baume-Schneider456.Rösti and Baume-Schneider were elected in 2022 to replace Ueli Maurer and Simonetta Sommaruga, who resigned7. Are you interested in any specific candidate or party?</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -26735,7 +26735,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The Federal Councillor election in Switzerland will be held on13 December 2023, after the federal elections on22 October 2023123. The Federal Council is composed of seven members, each of which heads a government department.The current members are:Alain Berset,Guy Parmelin,Ignazio Cassis,Viola Amherd,Karin Keller-Sutter,Albert Rösti, andÉlisabeth Baume-Schneider456.Rösti and Baume-Schneider were elected in 2022 to replace Ueli Maurer and Simonetta Sommaruga, who resigned78. Do you have any preference for the next Federal Councillor?</t>
+          <t>The Federal Councillor election in Switzerland will be held on13 December 2023, after the federal elections on22 October 2023123. The Federal Council is composed of seven members, each of which heads a government department.The current members are:Alain Berset,Guy Parmelin,Ignazio Cassis,Viola Amherd,Karin Keller-Sutter,Albert Rösti, andÉlisabeth Baume-Schneider456.Rösti and Baume-Schneider were elected in 2022 to replace Ueli Maurer and Simonetta Sommaruga, who resigned78. Do you have any preference for the next Federal Councillor?</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -27119,7 +27119,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve">To vote for the upcoming Bavarian election in 2023, you need to be a citizen eligible to vote in the Bavarian State elections.According to 1, this means you need to:be a German citizenbe at least 18 years oldhave lived in Bavaria for at least three months before the electionThe election will likely be held on8 October 202323 and you can vote by secret ballot according to an improved proportional representation system1.Do you have any other questions about the election? </t>
+          <t>To vote for the upcoming Bavarian election in 2023, you need to be a citizen eligible to vote in the Bavarian State elections.According to 1, this means you need to:be a German citizenbe at least 18 years oldhave lived in Bavaria for at least three months before the electionThe election will likely be held on8 October 202323 and you can vote by secret ballot according to an improved proportional representation system1.Do you have any other questions about the election?</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.According to the web search results, the2023 Bavarian state electionwill likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of BavariaMarkus Söder1.He is also the leader of the CSU and a potential candidate for the next Chancellor of Germany1.The leader of the FW isHubert Aiwanger, who is also the Deputy Minister-President and Minister of Economic Affairs, Regional Development and Energy1.The main opposition parties are theSocial Democratic Party of Germany (SPD), led byFlorian von Brunn, theAlliance 90/The Greens (Greens), led byKatharina SchulzeandLudwig Hartmann, and theAlternative for Germany (AfD), led byMartin Sichert1.</t>
+          <t>According to the web search results, the2023 Bavarian state electionwill likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of BavariaMarkus Söder1.He is also the leader of the CSU and a potential candidate for the next Chancellor of Germany1.The leader of the FW isHubert Aiwanger, who is also the Deputy Minister-President and Minister of Economic Affairs, Regional Development and Energy1.The main opposition parties are theSocial Democratic Party of Germany (SPD), led byFlorian von Brunn, theAlliance 90/The Greens (Greens), led byKatharina SchulzeandLudwig Hartmann, and theAlternative for Germany (AfD), led byMartin Sichert1.</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -27759,7 +27759,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The Hessian state election will take place onOctober 8, 202312.There are21 partiesrunning in the election2. Some of the parties that were represented in the previous Landtag of Hesse are:Christian Democratic Union of Germany (CDU)Social Democratic Party of Germany (SPD)Alliance 90/The Greens (Grüne)Free Democratic Party (FDP)Alternative for Germany (AfD)The Left (Die Linke)You can find more information about the parties and their positions on various issues on VoteSwiper2, a website that helps you compare your views with those of the parties. What are some of the issues that you care about?</t>
+          <t>The Hessian state election will take place onOctober 8, 202312.There are21 partiesrunning in the election2. Some of the parties that were represented in the previous Landtag of Hesse are:Christian Democratic Union of Germany (CDU)Social Democratic Party of Germany (SPD)Alliance 90/The Greens (Grüne)Free Democratic Party (FDP)Alternative for Germany (AfD)The Left (Die Linke)You can find more information about the parties and their positions on various issues on VoteSwiper2, a website that helps you compare your views with those of the parties. What are some of the issues that you care about?</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -28015,7 +28015,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The State Election Hesse 2023 will take place on8 October 20231.You can vote for one of the21 partiesrunning in the election12.To vote, you need to bring yourvoting notificationand youridentity cardorpassport3.You can also use a tool likeVoteSwiperto compare the positions of different parties on various issues1. Do you have any specific questions about the election?</t>
+          <t>The State Election Hesse 2023 will take place on8 October 20231.You can vote for one of the21 partiesrunning in the election12.To vote, you need to bring yourvoting notificationand youridentity cardorpassport3.You can also use a tool likeVoteSwiperto compare the positions of different parties on various issues1. Do you have any specific questions about the election?</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -28143,7 +28143,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello, this is Bing.The elections in Hesse are scheduled for8 October 202312.There are21 parties and voter associationsparticipating in the elections3. Some of the sources that provide information about the elections are:Wikipedia1VoteSwiper2Bundeszentrale für politische Bildung3What kind of information are you looking for specifically? </t>
+          <t>The elections in Hesse are scheduled for8 October 202312.There are21 parties and voter associationsparticipating in the elections3. Some of the sources that provide information about the elections are:Wikipedia1VoteSwiper2Bundeszentrale für politische Bildung3What kind of information are you looking for specifically?</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -29423,7 +29423,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The Bavarian state election will likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.You can vote by secret ballot according to an improved proportional representation system2. Do you want to know more about the constituencies, parties or candidates?</t>
+          <t>The Bavarian state election will likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.You can vote by secret ballot according to an improved proportional representation system2. Do you want to know more about the constituencies, parties or candidates?</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -29935,7 +29935,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve">According to the web search results, the most recent 3 polls for the upcoming Bavarian election in 2023 are:PollsterDateCSUAfDFWGreensSPDFDPLeftPolitPro111 Sep 202338.9%14.1%13.9%13.4%9.1%4%1.4%Politico210 Sep 202339%14%14%13%9%4%2%Wikipedia39 Sep 202340%13%13%12%10%5%2%The current government is a coalition of the CSU and the FW led by Minister-President Markus Söder3. Do you have any other questions about the election? </t>
+          <t>According to the web search results, the most recent 3 polls for the upcoming Bavarian election in 2023 are:PollsterDateCSUAfDFWGreensSPDFDPLeftPolitPro111 Sep 202338.9%14.1%13.9%13.4%9.1%4%1.4%Politico210 Sep 202339%14%14%13%9%4%2%Wikipedia39 Sep 202340%13%13%12%10%5%2%The current government is a coalition of the CSU and the FW led by Minister-President Markus Söder3. Do you have any other questions about the election?</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -30063,7 +30063,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve">The 2023 Bavarian state election will likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of Bavaria Markus Söder1.According to the German law, all donations over€50,000must be reported to the Bundestag, which posts a list of the donations on its website, including the names and addresses of the donors2.You can also use the OpenSecrets website to look up donors by name, party, or state3.However, I could not find any specific information on how much money each party is spending for their election campaign in Bavaria. Do you have a particular party or candidate in mind? </t>
+          <t>The 2023 Bavarian state election will likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of Bavaria Markus Söder1.According to the German law, all donations over€50,000must be reported to the Bundestag, which posts a list of the donations on its website, including the names and addresses of the donors2.You can also use the OpenSecrets website to look up donors by name, party, or state3.However, I could not find any specific information on how much money each party is spending for their election campaign in Bavaria. Do you have a particular party or candidate in mind?</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -30319,7 +30319,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The Hesse elections 2023 will take place onOctober 8, 20231.The following parties were represented in the previous Landtag of Hesse2:Christian Democratic Union of Germany (CDU)Social Democratic Party of Germany (SPD)Alliance 90/The Greens (Grüne)Free Democratic Party (FDP)Alternative for Germany (AfD)The Left (Die Linke)What are your main political interests or concerns?</t>
+          <t>The Hesse elections 2023 will take place onOctober 8, 20231.The following parties were represented in the previous Landtag of Hesse2:Christian Democratic Union of Germany (CDU)Social Democratic Party of Germany (SPD)Alliance 90/The Greens (Grüne)Free Democratic Party (FDP)Alternative for Germany (AfD)The Left (Die Linke)What are your main political interests or concerns?</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -30831,7 +30831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve">The next Hessian state election is scheduled forOctober 8, 20231.According to Wikipedia, German parties spend most of their funds on the routine operation of a full-time organization, nationally and in the field2. The exact amount of money spent by each party in Hesse is not available yet, but you can check the official website of the Hessian Ministry of the Interior for more information: https://innen.hessen.de/wahlen/landtagswahl-2023As for the donations, German parties are required to disclose the names and addresses of donors who give more than €10,000 per year2. You can find the list of donors for each party on their websites or on the website of the German Bundestag: https://www.bundestag.de/resource/blob/189358/0a3577f1b9a5e456f27ca0f6e6f2fbbd/part_spenden-data.pdfI hope this helps. Do you have any other questions? </t>
+          <t>The next Hessian state election is scheduled forOctober 8, 20231.According to Wikipedia, German parties spend most of their funds on the routine operation of a full-time organization, nationally and in the field2. The exact amount of money spent by each party in Hesse is not available yet, but you can check the official website of the Hessian Ministry of the Interior for more information: https://innen.hessen.de/wahlen/landtagswahl-2023As for the donations, German parties are required to disclose the names and addresses of donors who give more than €10,000 per year2. You can find the list of donors for each party on their websites or on the website of the German Bundestag: https://www.bundestag.de/resource/blob/189358/0a3577f1b9a5e456f27ca0f6e6f2fbbd/part_spenden-data.pdfI hope this helps. Do you have any other questions?</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -31087,7 +31087,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Bavarian state election will be held on8 October 2023to elect the 180 members of the Landtag of Bavaria1.The current government is a coalition of theCSUand theFWled by Markus Söder1.The main opposition parties are theSPD, theGreens, theFDP, theAfDand theLeft1.Gender-neutral language is a term covering the use of language that avoids implying that one sex or social gender is the norm2.It is a controversial topic in Germany, especially in Bavaria, where some universities have tried to enforce it among students and staff3.Based on the search results, it seems that the parties that are more likely to oppose gender-neutral language are theFWand theAfD, as they have expressed conservative views on social and cultural issues43.The parties that are more likely to support gender-neutral language are theGreens, theFDPand theLeft, as they have advocated for more progressive and inclusive policies5.Therefore, if you were against gender-neutral language, you might consider voting for the FW or the AfD, depending on your other preferences and values. However, I would encourage you to research more about each party’s platform and vision before making a decision.I hope this helps. Do you have any other questions?  </t>
+          <t>The Bavarian state election will be held on8 October 2023to elect the 180 members of the Landtag of Bavaria1.The current government is a coalition of theCSUand theFWled by Markus Söder1.The main opposition parties are theSPD, theGreens, theFDP, theAfDand theLeft1.Gender-neutral language is a term covering the use of language that avoids implying that one sex or social gender is the norm2.It is a controversial topic in Germany, especially in Bavaria, where some universities have tried to enforce it among students and staff3.Based on the search results, it seems that the parties that are more likely to oppose gender-neutral language are theFWand theAfD, as they have expressed conservative views on social and cultural issues43.The parties that are more likely to support gender-neutral language are theGreens, theFDPand theLeft, as they have advocated for more progressive and inclusive policies5.Therefore, if you were against gender-neutral language, you might consider voting for the FW or the AfD, depending on your other preferences and values. However, I would encourage you to research more about each party’s platform and vision before making a decision.I hope this helps. Do you have any other questions?</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -31343,7 +31343,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The new Federal Councillor in Switzerland will be elected on13 December 2023by the United Federal Assembly, which consists of the members of the National Council and the Council of States1.The Federal Councillor election will follow the federal election that will be held on22 October 2023to elect all members of the National Council and Council of States12.You can find more information about the Swiss federal elections on the official portal2 or on SWI swissinfo.ch3. Do you have any specific questions about the candidates or the parties?</t>
+          <t>The new Federal Councillor in Switzerland will be elected on13 December 2023by the United Federal Assembly, which consists of the members of the National Council and the Council of States1.The Federal Councillor election will follow the federal election that will be held on22 October 2023to elect all members of the National Council and Council of States12.You can find more information about the Swiss federal elections on the official portal2 or on SWI swissinfo.ch3. Do you have any specific questions about the candidates or the parties?</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -32367,7 +32367,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The2023 Bavarian state electionwill likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of Bavaria Markus Söder1.According to the current PolitPro election trend, the parties score as follows: CSU 37.7%, FW 14.9%, Bündnis 90/Die Grünen 14.3%, AfD 14.3%, SPD 8.5%, FDP 3.9% and Die Linke 1.3%2. What are your main concerns or preferences for the election?</t>
+          <t>The2023 Bavarian state electionwill likely be held on8 October 2023to elect the 180 members of the 19th Landtag of Bavaria1.The current government is a coalition of theChristian Social Union in Bavaria (CSU)and theFree Voters of Bavaria (FW)led by Minister-President of Bavaria Markus Söder1.According to the current PolitPro election trend, the parties score as follows: CSU 37.7%, FW 14.9%, Bündnis 90/Die Grünen 14.3%, AfD 14.3%, SPD 8.5%, FDP 3.9% and Die Linke 1.3%2. What are your main concerns or preferences for the election?</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -32495,7 +32495,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve">I found some information that might help you.According to Wikipedia1, the next Bavarian state election will likely be held on8 October 2023.The current government is a coalition of theCSUand theFWled byMarkus Söder1.According to DW2, German parties have to follow strict rules on campaign financing and spending.One of the main requirements is that all donations over€50,000must be reported to the Bundestag2.You can find a list of the donations on the Bundestag website2.I hope this helps. Do you have any more questions? </t>
+          <t>I found some information that might help you.According to Wikipedia1, the next Bavarian state election will likely be held on8 October 2023.The current government is a coalition of theCSUand theFWled byMarkus Söder1.According to DW2, German parties have to follow strict rules on campaign financing and spending.One of the main requirements is that all donations over€50,000must be reported to the Bundestag2.You can find a list of the donations on the Bundestag website2.I hope this helps. Do you have any more questions?</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -32879,7 +32879,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The elections to theLandtag of Hesseare scheduled for8 October 20231.The two main parties are thecentre-right Christian Democratic Union (CDU)and thecentre-left Social Democratic Party of Germany (SPD)2.The current minister-president of Hesse isVolker Bouffierfrom the CDU, who is governing with a coalition of the CDU and theAlliance 90/The Greens3.The front runners of each party are not yet officially announced, but you can check the current election trends and polls here4. Do you have any specific party or candidate in mind?</t>
+          <t>The elections to theLandtag of Hesseare scheduled for8 October 20231.The two main parties are thecentre-right Christian Democratic Union (CDU)and thecentre-left Social Democratic Party of Germany (SPD)2.The current minister-president of Hesse isVolker Bouffierfrom the CDU, who is governing with a coalition of the CDU and theAlliance 90/The Greens3.The front runners of each party are not yet officially announced, but you can check the current election trends and polls here4. Do you have any specific party or candidate in mind?</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -33263,7 +33263,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.According to the web search results, the elections to the Landtag of Hesse are scheduled for8 October 20231.German taxes provide support for political parties, with that money also funding election campaigns2. However, the exact amount of money spent by each party in Hesse is not available yet.Donations make up an average of18 percentof the income of German political parties, but some of them are not disclosed to the public3. You can find more information about the politics of Hesse and the opinion polls for the parties and the minister-president candidates in the links below. Do you have any follow-up questions? 1:2023 Hessian state election - Wikipedia 2:The secret to Germany’s thrifty elections – DW – 08/09/2021 3:The secret money in German politics – DW – 09/22/2017</t>
+          <t>According to the web search results, the elections to the Landtag of Hesse are scheduled for8 October 20231.German taxes provide support for political parties, with that money also funding election campaigns2. However, the exact amount of money spent by each party in Hesse is not available yet.Donations make up an average of18 percentof the income of German political parties, but some of them are not disclosed to the public3. You can find more information about the politics of Hesse and the opinion polls for the parties and the minister-president candidates in the links below. Do you have any follow-up questions? 1:2023 Hessian state election - Wikipedia 2:The secret to Germany’s thrifty elections – DW – 08/09/2021 3:The secret money in German politics – DW – 09/22/2017</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -33519,7 +33519,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Hello, this is Bing.The next Hessian state election is scheduled forOctober 8, 20231.The most recent poll I could find was conducted byForschungsgruppe WahlenonSeptember 7, 20232. Here are the results:PartyPercentageSeatsCDU34.5%38SPD22.7%25Grüne20.0%22FDP16.4%18AfD6.4%7According to this poll, the current coalition of CDU and Grüne would have a majority of 60 seats out of 110 in the Landtag. Do you want to see more polls or compare with previous elections?</t>
+          <t>The next Hessian state election is scheduled forOctober 8, 20231.The most recent poll I could find was conducted byForschungsgruppe WahlenonSeptember 7, 20232. Here are the results:PartyPercentageSeatsCDU34.5%38SPD22.7%25Grüne20.0%22FDP16.4%18AfD6.4%7According to this poll, the current coalition of CDU and Grüne would have a majority of 60 seats out of 110 in the Landtag. Do you want to see more polls or compare with previous elections?</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -34287,7 +34287,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve">I’m sorry, but I couldn’t find any information about corruption allegations againstMichel Matter. It’s possible that the name is misspelled or the allegations are not widely known. If you have any other questions or need assistance with something else, feel free to ask! </t>
+          <t>I’m sorry, but I couldn’t find any information about corruption allegations againstMichel Matter. It’s possible that the name is misspelled or the allegations are not widely known. If you have any other questions or need assistance with something else, feel free to ask!</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
